--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.412</v>
+        <v>-0.144</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.428</v>
+        <v>29.232</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.496</v>
+        <v>-0.843</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.436</v>
+        <v>23.795</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6840000000000001</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.068</v>
+        <v>28.594</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.061813406119001</v>
+        <v>36.26051581879265</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.0490029137428</v>
+        <v>36.26051585286813</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.12240127283777</v>
+        <v>36.26051586508237</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.168403898640825</v>
+        <v>36.26051584199713</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.20879633139873</v>
+        <v>36.26051587984755</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.72067134195062</v>
+        <v>36.26051589277957</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.831231315808772</v>
+        <v>36.26051584433203</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.42192853383328</v>
+        <v>36.26051588207184</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.27951124299138</v>
+        <v>36.26051589410299</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.68444065783993</v>
+        <v>36.26051590327942</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.61208346557653</v>
+        <v>36.26051591673566</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.46539116107697</v>
+        <v>36.26051592284919</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.20740847188748</v>
+        <v>36.26051587399885</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.11949856445358</v>
+        <v>36.26051591466346</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.77200406637409</v>
+        <v>36.26051592508458</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.468050296765753</v>
+        <v>36.26051588350456</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.66542589881086</v>
+        <v>36.26051592336537</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.47685545680757</v>
+        <v>36.26051593909269</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.431534819675242</v>
+        <v>36.26051590742772</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.13727514487561</v>
+        <v>36.26051595013924</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.83004804036936</v>
+        <v>36.26051596748621</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.26977161793858</v>
+        <v>36.2605159164448</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.44434798714078</v>
+        <v>36.26051596014691</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>44.62217275138062</v>
+        <v>36.26051597603048</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.37341140006635</v>
+        <v>36.26051597732927</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.96932940588183</v>
+        <v>36.2605159947059</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53.21646876299504</v>
+        <v>36.26051600194862</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.29385135035527</v>
+        <v>36.26051594306017</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.11919257813524</v>
+        <v>36.26051599271999</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.36940343322762</v>
+        <v>36.26051600535129</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.43114699531185</v>
+        <v>36.26051593889787</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.71479639647407</v>
+        <v>36.2605159802</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.4310984998133</v>
+        <v>36.26051599619689</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.49240360046484</v>
+        <v>36.26051596338215</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.81406770173034</v>
+        <v>36.26051600754398</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.20619325913233</v>
+        <v>36.26051602524385</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.43558958748252</v>
+        <v>36.26051597460792</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.85666770968135</v>
+        <v>36.26051601978319</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>58.86124758430232</v>
+        <v>36.26051603566871</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.55983264844387</v>
+        <v>36.26051603470143</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67.23290140547648</v>
+        <v>36.26051605116862</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>73.44197539007605</v>
+        <v>36.26051605751414</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.48371448513056</v>
+        <v>36.26051599682436</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.19235839223198</v>
+        <v>36.26051604660312</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>71.16728847850447</v>
+        <v>36.26051605937847</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.624307428645913</v>
+        <v>36.26051582668724</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.14371963916453</v>
+        <v>36.26051586112009</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.72159018315725</v>
+        <v>36.26051587275239</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.725628693961614</v>
+        <v>36.26051584931796</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.45238248093334</v>
+        <v>36.26051588789311</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.27798971217241</v>
+        <v>36.26051589997608</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.77985409011696</v>
+        <v>36.26051585190761</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.81005582339899</v>
+        <v>36.26051589005866</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.05800178501871</v>
+        <v>36.26051590135773</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.18489819738021</v>
+        <v>36.2605159094589</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.43758976622789</v>
+        <v>36.26051592237754</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.68931410642082</v>
+        <v>36.2605159278422</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.60013422385038</v>
+        <v>36.26051587854582</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.37483972645698</v>
+        <v>36.26051591988078</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.15897131328207</v>
+        <v>36.26051592959945</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.435031144611067</v>
+        <v>36.26051588312436</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.88626381396661</v>
+        <v>36.2605159231264</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.85037408999951</v>
+        <v>36.26051593778985</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.735965690714938</v>
+        <v>36.26051590587292</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.80836157140683</v>
+        <v>36.26051594908428</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.41818783449234</v>
+        <v>36.26051596504431</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.25152200061148</v>
+        <v>36.26051591504537</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.55185279119664</v>
+        <v>36.26051595895091</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.73930059875339</v>
+        <v>36.26051597358953</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>43.70765536369954</v>
+        <v>36.26051597503131</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>51.50806799533395</v>
+        <v>36.26051599146324</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>55.92523562351745</v>
+        <v>36.26051599805799</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.89584364977959</v>
+        <v>36.26051593941339</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>49.18427327302474</v>
+        <v>36.26051598912088</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>55.53114304568022</v>
+        <v>36.26051600088235</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.79366652335613</v>
+        <v>36.2605159361983</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.10982744727124</v>
+        <v>36.26051597750007</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.1651476134542</v>
+        <v>36.26051599243593</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14.19443731796271</v>
+        <v>36.26051595987942</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.62029193718382</v>
+        <v>36.26051600450558</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.10959374412106</v>
+        <v>36.26051602074967</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.47792565152639</v>
+        <v>36.26051597098382</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>53.76637279381112</v>
+        <v>36.26051601620062</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>60.98445638534383</v>
+        <v>36.2605160308704</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>61.60419442058334</v>
+        <v>36.26051603039186</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>69.42882886698678</v>
+        <v>36.26051604608951</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>74.88012021871937</v>
+        <v>36.26051605185297</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.28721083459562</v>
+        <v>36.26051599139132</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>65.2615731816386</v>
+        <v>36.26051604138191</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.33283838270779</v>
+        <v>36.26051605316697</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.3800473999937</v>
+        <v>36.26051582596102</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.85893306713322</v>
+        <v>36.26051586044544</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.26798763621904</v>
+        <v>36.26051587198842</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.170876123110105</v>
+        <v>36.26051584852336</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.89840667015147</v>
+        <v>36.26051588718195</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.52351083492192</v>
+        <v>36.26051589916664</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.25002870896191</v>
+        <v>36.26051585109123</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.26243013631549</v>
+        <v>36.2605158893014</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>40.35210017159676</v>
+        <v>36.26051590052131</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39.71403191355049</v>
+        <v>36.26051590888006</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.91099747093786</v>
+        <v>36.26051592181001</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>49.10991461569997</v>
+        <v>36.26051592726976</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.18327425594554</v>
+        <v>36.26051587800963</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.89732747954207</v>
+        <v>36.2605159194114</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>45.51916304365437</v>
+        <v>36.26051592907532</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.59211269557487</v>
+        <v>36.26051588362066</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.07724048355472</v>
+        <v>36.26051592379017</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.80353501899103</v>
+        <v>36.26051593832327</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.618760419098539</v>
+        <v>36.26051590650678</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.8122156338129</v>
+        <v>36.26051594995227</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.105252145439</v>
+        <v>36.26051596573832</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.26574043499679</v>
+        <v>36.26051591568972</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.63836126680116</v>
+        <v>36.26051595977425</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.59636013284373</v>
+        <v>36.26051597429322</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.75037551056948</v>
+        <v>36.26051597596841</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.4881496140554</v>
+        <v>36.2605159924103</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.81899686693286</v>
+        <v>36.26051599897209</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.91962773860335</v>
+        <v>36.26051594022865</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.19553631191536</v>
+        <v>36.2605159901013</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.32612015197836</v>
+        <v>36.26051600177471</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.17022354779834</v>
+        <v>36.26051593717216</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.55196209081461</v>
+        <v>36.2605159786397</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.37885272670004</v>
+        <v>36.26051599345412</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.34566917888514</v>
+        <v>36.26051596093387</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.91474152423707</v>
+        <v>36.26051600579289</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.12165343191349</v>
+        <v>36.26051602187198</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.76994254674678</v>
+        <v>36.26051597207847</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.15984958409049</v>
+        <v>36.26051601747514</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.16063643681451</v>
+        <v>36.26051603203005</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.94862656725245</v>
+        <v>36.2605160317091</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>70.70625085468777</v>
+        <v>36.26051604742018</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.0886358876627</v>
+        <v>36.26051605315158</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.58256216726326</v>
+        <v>36.26051599262129</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.56809559763144</v>
+        <v>36.26051604274912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.4454560386242</v>
+        <v>36.26051605444595</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3.451686475091311</v>
+        <v>36.26051581761299</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>18.99619266354217</v>
+        <v>36.26051585126516</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.90269861603068</v>
+        <v>36.26051586317567</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.3988357539371208</v>
+        <v>36.2605158403051</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.89192282599795</v>
+        <v>36.26051587769365</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.21604875655743</v>
+        <v>36.26051589027833</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.839511598335935</v>
+        <v>36.26051584242305</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.91109735757072</v>
+        <v>36.2605158796803</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.57731302646415</v>
+        <v>36.26051589140742</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.12444343693318</v>
+        <v>36.26051590080518</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.92181282075454</v>
+        <v>36.26051591399419</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.72206932034678</v>
+        <v>36.26051592004746</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.36674756687843</v>
+        <v>36.26051587216128</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.7616581647245</v>
+        <v>36.26051591224049</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39.18703584797855</v>
+        <v>36.26051592239448</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.198935608322152</v>
+        <v>36.26051588068277</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.8446766443582</v>
+        <v>36.26051592004508</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.46197888122833</v>
+        <v>36.2605159353569</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8773580827955385</v>
+        <v>36.26051590398919</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.93665130415696</v>
+        <v>36.26051594618804</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.4023759729924</v>
+        <v>36.26051596304013</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.434518545174281</v>
+        <v>36.26051591263336</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.97292963468799</v>
+        <v>36.26051595577124</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>41.92398038704996</v>
+        <v>36.2605159712304</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.84649664511868</v>
+        <v>36.26051597287572</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.27772346534465</v>
+        <v>36.26051598991175</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.44714209778809</v>
+        <v>36.2605159970765</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.46617194711901</v>
+        <v>36.26051593922979</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>43.62326784016478</v>
+        <v>36.26051598814831</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.64194327329113</v>
+        <v>36.26051600044493</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.12777541340441</v>
+        <v>36.26051593529608</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.82746334291793</v>
+        <v>36.26051597605702</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.33270225014855</v>
+        <v>36.26051599163713</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.67146245779606</v>
+        <v>36.26051595920595</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.31149075084462</v>
+        <v>36.26051600279886</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.46261296990828</v>
+        <v>36.26051602000933</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.32016381879124</v>
+        <v>36.26051597006815</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.07184309182146</v>
+        <v>36.26051601463866</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.84762286288221</v>
+        <v>36.26051603010874</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>56.62010128671491</v>
+        <v>36.26051602964772</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>64.10433734607983</v>
+        <v>36.26051604582661</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.26781221873685</v>
+        <v>36.26051605208501</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.34361290049422</v>
+        <v>36.26051599240476</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>60.32675719582824</v>
+        <v>36.26051604144371</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.05346977109018</v>
+        <v>36.26051605389484</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.501669730099046</v>
+        <v>36.26051582801812</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.14624556724387</v>
+        <v>36.26051586233336</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.94013129355704</v>
+        <v>36.26051587411916</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.049916844767257</v>
+        <v>36.26051585145998</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.87018891281842</v>
+        <v>36.26051588962864</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.03365544367522</v>
+        <v>36.26051590209072</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.01307102303903</v>
+        <v>36.26051585402301</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.27383157643529</v>
+        <v>36.260515891993</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.81978876316864</v>
+        <v>36.26051590358813</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.02821817479334</v>
+        <v>36.26051591201705</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.05126986909348</v>
+        <v>36.26051592531761</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>49.76044384973656</v>
+        <v>36.2605159311972</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.85885483456795</v>
+        <v>36.26051588219541</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.21339004440758</v>
+        <v>36.26051592275953</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>46.5151569345947</v>
+        <v>36.26051593280337</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.50676543946791</v>
+        <v>36.26051589180113</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.20417119438933</v>
+        <v>36.26051593184064</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.52797650996445</v>
+        <v>36.26051594693207</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.650556241884907</v>
+        <v>36.26051591576407</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.00608009232504</v>
+        <v>36.26051595874571</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.12190819016524</v>
+        <v>36.26051597538276</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.90685092511639</v>
+        <v>36.26051592487948</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>43.58995777326649</v>
+        <v>36.26051596873714</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>51.23467623626349</v>
+        <v>36.26051598396387</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>47.02855418600868</v>
+        <v>36.26051598477494</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>54.65054648500537</v>
+        <v>36.26051600190996</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>59.66220822934689</v>
+        <v>36.26051600889293</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.53807714757428</v>
+        <v>36.26051595019954</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>52.60687940047318</v>
+        <v>36.2605159995958</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>59.35806246532449</v>
+        <v>36.26051601169743</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.14857551555693</v>
+        <v>36.26051594513495</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.83392477934492</v>
+        <v>36.26051598651637</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.07782203557804</v>
+        <v>36.26051600189121</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>17.3827219241958</v>
+        <v>36.26051596960936</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43.21167599284342</v>
+        <v>36.26051601393295</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>50.0427774911558</v>
+        <v>36.2605160309415</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.58244056330256</v>
+        <v>36.26051598083899</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>56.40003287571464</v>
+        <v>36.26051602606096</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>63.90403992531479</v>
+        <v>36.26051604132786</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>64.61335621294764</v>
+        <v>36.26051603998463</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>72.3176370246004</v>
+        <v>36.260516056264</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>78.29725929138294</v>
+        <v>36.26051606238065</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>39.23086268109466</v>
+        <v>36.26051600198733</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>68.15817810383243</v>
+        <v>36.26051605146657</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>75.62924360278589</v>
+        <v>36.26051606374713</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.01081094348253</v>
+        <v>36.26051584124116</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.42452806459988</v>
+        <v>36.26051587317077</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.44579421281179</v>
+        <v>36.26051588351457</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.66784791755152</v>
+        <v>36.26051586270401</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.09760146789953</v>
+        <v>36.26051589848213</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.30887030951938</v>
+        <v>36.26051590925077</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>17.29640614810559</v>
+        <v>36.26051586506558</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37.94494331084255</v>
+        <v>36.26051590039247</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.57052750397848</v>
+        <v>36.2605159104723</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.95224981529987</v>
+        <v>36.26051591753554</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.71738248084306</v>
+        <v>36.26051592945399</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.7039352022578</v>
+        <v>36.2605159344106</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.75246257890348</v>
+        <v>36.26051588871213</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>41.59154906869829</v>
+        <v>36.26051592637085</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.80755535956396</v>
+        <v>36.26051593509896</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.13705894603793</v>
+        <v>36.26051589732288</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>37.32537089550262</v>
+        <v>36.2605159346021</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.53748856945803</v>
+        <v>36.26051594764919</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.08279518331709</v>
+        <v>36.26051591912356</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.78577693382748</v>
+        <v>36.26051595945432</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.58437935883015</v>
+        <v>36.26051597367135</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.22294265990285</v>
+        <v>36.26051592757283</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.97417756503568</v>
+        <v>36.26051596841317</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>53.28551263612204</v>
+        <v>36.26051598147338</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>49.55918362537251</v>
+        <v>36.26051598222961</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>56.80835554237805</v>
+        <v>36.26051599746121</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>60.85712993822727</v>
+        <v>36.26051600337862</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.28355539693901</v>
+        <v>36.26051594906069</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>54.38793124086649</v>
+        <v>36.260515994815</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>59.95918948391751</v>
+        <v>36.26051600527637</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.79048261566442</v>
+        <v>36.26051594453814</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.73662354911437</v>
+        <v>36.26051598296623</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.95922752955904</v>
+        <v>36.26051599626233</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.8017209271455</v>
+        <v>36.26051596705702</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.69229852698118</v>
+        <v>36.26051600861622</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.2763253179092</v>
+        <v>36.26051602310431</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.46349122574706</v>
+        <v>36.2605159772369</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>58.0925961809608</v>
+        <v>36.26051601923466</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>64.36008763145453</v>
+        <v>36.26051603233353</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>65.09274890236702</v>
+        <v>36.26051603126422</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>72.35920369396757</v>
+        <v>36.26051604581718</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>77.26518972124748</v>
+        <v>36.26051605099782</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.43965369357355</v>
+        <v>36.26051599515054</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>68.25358669175374</v>
+        <v>36.26051604108603</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>74.44236363784211</v>
+        <v>36.26051605162538</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.339808531112425</v>
+        <v>36.26051582096493</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.98406333611187</v>
+        <v>36.26051585192224</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>20.4302184182056</v>
+        <v>36.26051586301331</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1.148734258794534</v>
+        <v>36.26051584154354</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.2476395183659</v>
+        <v>36.26051587617771</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.00183007981302</v>
+        <v>36.26051588773664</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.685365705275359</v>
+        <v>36.26051584329149</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.49662205904713</v>
+        <v>36.26051587763323</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.61819236714652</v>
+        <v>36.26051588847793</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.63613924726319</v>
+        <v>36.26051589737055</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.07606466101454</v>
+        <v>36.26051590946442</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.28566941976227</v>
+        <v>36.26051591492248</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>9.24185548449605</v>
+        <v>36.26051587025234</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.65701905207313</v>
+        <v>36.26051590747871</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.37370962352137</v>
+        <v>36.26051591685194</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.017861993651202</v>
+        <v>36.26051587906959</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.7469119325009</v>
+        <v>36.26051591539463</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.74936654720707</v>
+        <v>36.26051592958954</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1.64704089980517</v>
+        <v>36.26051590064681</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.6029832816353</v>
+        <v>36.26051593987491</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.33395081543819</v>
+        <v>36.26051595530045</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.758875486811082</v>
+        <v>36.26051590872074</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.00476992354188</v>
+        <v>36.26051594863624</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.20189939416731</v>
+        <v>36.26051596288161</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.61132730187837</v>
+        <v>36.2605159650636</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.65725405085946</v>
+        <v>36.26051598053751</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.04672399396608</v>
+        <v>36.2605159869893</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>15.57052615188271</v>
+        <v>36.2605159331927</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.55425955420313</v>
+        <v>36.26051597864171</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.87622645624022</v>
+        <v>36.26051599003624</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>14.73874869799403</v>
+        <v>36.26051593048339</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.44009178446077</v>
+        <v>36.26051596811757</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.49851166465624</v>
+        <v>36.26051598261471</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.44078787301349</v>
+        <v>36.26051595290981</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.90870444160684</v>
+        <v>36.26051599354821</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.46005476364402</v>
+        <v>36.26051600928518</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.41949390641098</v>
+        <v>36.26051596290529</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>47.78973582298442</v>
+        <v>36.2605160041637</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>54.95575712936469</v>
+        <v>36.26051601844775</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.73492538069095</v>
+        <v>36.26051601853627</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>62.77026991139595</v>
+        <v>36.26051603326397</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>68.0741259482285</v>
+        <v>36.26051603892665</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32.15420687375858</v>
+        <v>36.26051598343246</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>58.90145751058702</v>
+        <v>36.26051602910596</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.93354188182218</v>
+        <v>36.26051604056447</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.327142437007652</v>
+        <v>36.2605158193677</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>17.46240544951465</v>
+        <v>36.26051585332669</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.31219774695839</v>
+        <v>36.26051586516012</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1.484125902862637</v>
+        <v>36.26051584217353</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.72441562670569</v>
+        <v>36.26051587997657</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.93002656390944</v>
+        <v>36.26051589245686</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4.942237209477387</v>
+        <v>36.26051584431915</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.63516296650085</v>
+        <v>36.2605158819087</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.24332811638095</v>
+        <v>36.26051589355488</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.8825554866478</v>
+        <v>36.26051590250176</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.79117599984377</v>
+        <v>36.26051591574139</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>40.55321139698724</v>
+        <v>36.26051592165958</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.25765139224619</v>
+        <v>36.26051587312916</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.21360514980792</v>
+        <v>36.26051591348172</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.5187155995121</v>
+        <v>36.26051592356575</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3.63611527432089</v>
+        <v>36.26051588135113</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.82727747262226</v>
+        <v>36.26051592098246</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.23446666605249</v>
+        <v>36.26051593612069</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1.584253627222083</v>
+        <v>36.2605159046717</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.14150925829298</v>
+        <v>36.26051594724387</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.31713451681186</v>
+        <v>36.26051596388302</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.03499537912738</v>
+        <v>36.26051591332865</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.14539477437626</v>
+        <v>36.26051595675649</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.88081515162513</v>
+        <v>36.2605159720389</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.12526671214839</v>
+        <v>36.26051597350767</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.63259929695774</v>
+        <v>36.26051599055951</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.71622014844005</v>
+        <v>36.26051599763031</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.09763302920024</v>
+        <v>36.26051593932775</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>41.74710924677652</v>
+        <v>36.26051598841562</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.55183725788362</v>
+        <v>36.26051600059355</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.03495475099798</v>
+        <v>36.26051593550693</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.25012292117787</v>
+        <v>36.26051597649121</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.64759882739195</v>
+        <v>36.26051599197399</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7.896711543305415</v>
+        <v>36.26051595948405</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.15308690616092</v>
+        <v>36.26051600342746</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.11566167072208</v>
+        <v>36.26051602049525</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.52378730865472</v>
+        <v>36.26051597028832</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.80172243565509</v>
+        <v>36.26051601509216</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.475806689649</v>
+        <v>36.26051603047951</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.47355840948147</v>
+        <v>36.26051602973269</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>62.06987644457367</v>
+        <v>36.2605160460005</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.19506867074372</v>
+        <v>36.26051605220086</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.56484266619761</v>
+        <v>36.26051599208125</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>58.06609210106591</v>
+        <v>36.26051604131614</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>65.62813330022917</v>
+        <v>36.26051605370687</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.90854977221208</v>
+        <v>36.26051584238046</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.10580723458419</v>
+        <v>36.26051587549271</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.36638473700852</v>
+        <v>36.26051588666061</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.20802034875873</v>
+        <v>36.26051586572983</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.70272975086046</v>
+        <v>36.26051590295972</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.14517925044055</v>
+        <v>36.2605159144756</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.38973356692257</v>
+        <v>36.26051586856207</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.03564904008079</v>
+        <v>36.26051590528503</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>46.92545211433142</v>
+        <v>36.26051591612282</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>46.44776150007387</v>
+        <v>36.26051592343239</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>52.48528070506796</v>
+        <v>36.26051593594509</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>55.47718319837092</v>
+        <v>36.26051594120954</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.30932550364364</v>
+        <v>36.26051589362135</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>46.29868063981825</v>
+        <v>36.26051593303927</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.89137212140606</v>
+        <v>36.26051594247468</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.49259696500392</v>
+        <v>36.26051589753209</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.4585245034207</v>
+        <v>36.26051593608197</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>40.86205523023133</v>
+        <v>36.26051595005696</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.80604598015408</v>
+        <v>36.26051592109008</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.47970708405354</v>
+        <v>36.26051596290596</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>41.46478887284974</v>
+        <v>36.26051597800516</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.35785717729503</v>
+        <v>36.26051593015251</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>46.09730699337069</v>
+        <v>36.26051597248475</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>52.64865945200663</v>
+        <v>36.26051598642081</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49.18382496021586</v>
+        <v>36.26051598725879</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.69293842823253</v>
+        <v>36.26051600321659</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>60.69880975731515</v>
+        <v>36.26051600944628</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.04794094732525</v>
+        <v>36.26051595302361</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>54.30005794741319</v>
+        <v>36.26051600068211</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>60.1065620701546</v>
+        <v>36.2605160118712</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.3549017676272</v>
+        <v>36.26051594729886</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.16772100345172</v>
+        <v>36.26051598705082</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>48.64592999793125</v>
+        <v>36.26051600130359</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>19.98127253191958</v>
+        <v>36.26051597159029</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.97058590197685</v>
+        <v>36.26051601471749</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>51.7994620634429</v>
+        <v>36.26051603009042</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.153731821515</v>
+        <v>36.26051598244525</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>58.86924206947036</v>
+        <v>36.2605160259935</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>65.42399109453021</v>
+        <v>36.26051603996919</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>66.43103749107655</v>
+        <v>36.26051603884593</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>73.98589361088159</v>
+        <v>36.26051605401308</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>78.89986869386354</v>
+        <v>36.26051605947541</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.79094698767256</v>
+        <v>36.26051600149074</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>69.84453223983414</v>
+        <v>36.26051604931036</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>76.33538968027852</v>
+        <v>36.26051606054759</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1.123932369971335</v>
+        <v>36.26051581634282</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.27326721114167</v>
+        <v>36.26051584697049</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.92712387421852</v>
+        <v>36.2605158579771</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.258093633173473</v>
+        <v>36.26051583565492</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.68556602093757</v>
+        <v>36.26051586981499</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.69653170663208</v>
+        <v>36.26051588137513</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1.299982312369302</v>
+        <v>36.26051583730005</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.72780307362264</v>
+        <v>36.2605158712481</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.06324158873316</v>
+        <v>36.2605158820371</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.44293561511531</v>
+        <v>36.26051589081472</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.82342947888518</v>
+        <v>36.26051590262086</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.20720872454931</v>
+        <v>36.26051590795379</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5.405314434838413</v>
+        <v>36.26051586390416</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.73972183235305</v>
+        <v>36.26051590106016</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.52005274094012</v>
+        <v>36.26051591030213</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.994781947925688</v>
+        <v>36.26051587082476</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.30260213842918</v>
+        <v>36.26051590655938</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.629671575945</v>
+        <v>36.26051592068787</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.904197429341252</v>
+        <v>36.26051589078291</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.4553061645228</v>
+        <v>36.26051592923988</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.51344041561125</v>
+        <v>36.26051594467115</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4.793726090637779</v>
+        <v>36.26051589868428</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.45860874051795</v>
+        <v>36.26051593793561</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.99768256073553</v>
+        <v>36.26051595215209</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.90293851359879</v>
+        <v>36.26051595449074</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.83284973639184</v>
+        <v>36.2605159695529</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.46751049570106</v>
+        <v>36.26051597603303</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.23072106796861</v>
+        <v>36.26051592298366</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.87436658400317</v>
+        <v>36.26051596791583</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.54264027586456</v>
+        <v>36.26051597934619</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.19744918836652</v>
+        <v>36.26051592224505</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.37684117438035</v>
+        <v>36.26051595925578</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.90639690150922</v>
+        <v>36.26051597380655</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.027155230453456</v>
+        <v>36.26051594313762</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.76059120873043</v>
+        <v>36.26051598296287</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.80631395162685</v>
+        <v>36.26051599887743</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.52382181398219</v>
+        <v>36.26051595291531</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>41.18288328547696</v>
+        <v>36.26051599346462</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>48.85279093611448</v>
+        <v>36.26051600785081</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.94242544754989</v>
+        <v>36.26051600813818</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>55.8519474384331</v>
+        <v>36.26051602257353</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>61.56814341482793</v>
+        <v>36.26051602828161</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.93032520194787</v>
+        <v>36.26051597335818</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>52.14801695414189</v>
+        <v>36.26051601863474</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>59.64239422471292</v>
+        <v>36.2605160301788</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.976778144841749</v>
+        <v>36.26051582439923</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.416247603098</v>
+        <v>36.26051585731325</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.59098814319563</v>
+        <v>36.26051586812728</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.328087129294733</v>
+        <v>36.26051584507155</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.70159286920795</v>
+        <v>36.26051588187806</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.09827002423353</v>
+        <v>36.26051589317597</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.705273582746909</v>
+        <v>36.26051584715502</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.43340403170681</v>
+        <v>36.26051588357745</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.25717193275539</v>
+        <v>36.26051589411218</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.71847225593537</v>
+        <v>36.26051590236342</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.55846861624725</v>
+        <v>36.26051591462044</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.68067983123593</v>
+        <v>36.26051591977682</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.5105272741774</v>
+        <v>36.26051587296627</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.88010531401811</v>
+        <v>36.26051591232751</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.15951776914855</v>
+        <v>36.26051592136459</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.38823900074438</v>
+        <v>36.26051588179046</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.76733828017015</v>
+        <v>36.26051592021341</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.26786408108277</v>
+        <v>36.2605159339183</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.252716021749926</v>
+        <v>36.26051590295151</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.11197105134142</v>
+        <v>36.26051594442018</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.17191558674911</v>
+        <v>36.26051595939232</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.27999902129695</v>
+        <v>36.26051591147395</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.30613503020943</v>
+        <v>36.26051595359527</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.97989144221509</v>
+        <v>36.26051596731212</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.21777179766624</v>
+        <v>36.26051596911792</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.56441846424683</v>
+        <v>36.26051598473329</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.82127471924807</v>
+        <v>36.26051599098017</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.60977975064952</v>
+        <v>36.26051593493589</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.40795303800061</v>
+        <v>36.26051598249833</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>53.27719377126003</v>
+        <v>36.26051599351216</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.50869904181146</v>
+        <v>36.26051593307536</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.73297068790665</v>
+        <v>36.26051597277533</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.30029849787449</v>
+        <v>36.26051598672309</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.29862913926183</v>
+        <v>36.26051595509466</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>39.45168891654414</v>
+        <v>36.26051599794079</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.40350132455414</v>
+        <v>36.26051601317799</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.00306066535908</v>
+        <v>36.2605159655086</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.9868617619759</v>
+        <v>36.26051600891476</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.68180337479208</v>
+        <v>36.26051602265302</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.3994699520027</v>
+        <v>36.26051602256553</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.7650903532659</v>
+        <v>36.26051603754846</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>72.02987541992846</v>
+        <v>36.260516042996</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.37597340319234</v>
+        <v>36.26051598516791</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>62.8295428624937</v>
+        <v>36.26051603302945</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>69.39057972121392</v>
+        <v>36.26051604407488</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.8143729239325879</v>
+        <v>36.26051581156571</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.96912804665083</v>
+        <v>36.26051584343023</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.36644212279456</v>
+        <v>36.26051585449349</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-4.280149867637512</v>
+        <v>36.26051583142292</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.20021419471516</v>
+        <v>36.26051586705464</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.87313606149327</v>
+        <v>36.26051587853713</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1.608815569696841</v>
+        <v>36.26051583302861</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.56900338577457</v>
+        <v>36.26051586835621</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.63708958568378</v>
+        <v>36.26051587914151</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.25877457850892</v>
+        <v>36.26051588854187</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.72403513890867</v>
+        <v>36.26051590060727</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.90457272678243</v>
+        <v>36.26051590600425</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>5.625233161908529</v>
+        <v>36.26051586056848</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.28757622837205</v>
+        <v>36.2605158989785</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.83418168932554</v>
+        <v>36.26051590826356</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-0.1755823756634101</v>
+        <v>36.26051586608693</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.43050288707813</v>
+        <v>36.26051590326444</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.37294536527846</v>
+        <v>36.26051591732536</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-6.012823375173731</v>
+        <v>36.2605158864448</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>15.75362883215792</v>
+        <v>36.26051592655285</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.32949279423873</v>
+        <v>36.26051594179839</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2.100863773979473</v>
+        <v>36.2605158943641</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.21424249983176</v>
+        <v>36.26051593519762</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.35688312117254</v>
+        <v>36.26051594928499</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.76257076612385</v>
+        <v>36.2605159523024</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.71350444610906</v>
+        <v>36.260515967676</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>40.09696876203101</v>
+        <v>36.26051597418844</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.640433941062717</v>
+        <v>36.2605159196231</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.62153284431725</v>
+        <v>36.26051596602535</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.89421967178134</v>
+        <v>36.26051597738165</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.986910222661791</v>
+        <v>36.26051591954571</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.59034993017183</v>
+        <v>36.26051595806128</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.54964384162272</v>
+        <v>36.26051597239068</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.837665213854265</v>
+        <v>36.26051594097149</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.10338724804811</v>
+        <v>36.26051598250885</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.50175953575627</v>
+        <v>36.26051599803461</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.85782226618279</v>
+        <v>36.26051595100744</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.10741356920026</v>
+        <v>36.26051599321667</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.20643921227625</v>
+        <v>36.26051600731373</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.00405664090862</v>
+        <v>36.26051600853641</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.91343963911528</v>
+        <v>36.26051602326743</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.34900464613251</v>
+        <v>36.26051602892294</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.4020139036366</v>
+        <v>36.26051597243078</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.06958057997794</v>
+        <v>36.26051601920738</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>57.99493364416064</v>
+        <v>36.26051603055917</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-4.683111337552354</v>
+        <v>36.26051580988758</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.007419820148439</v>
+        <v>36.26051584024724</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.07905801628018</v>
+        <v>36.26051585068686</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-8.46213996864342</v>
+        <v>36.26051582816924</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.611761451279655</v>
+        <v>36.26051586208514</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.97110600655876</v>
+        <v>36.26051587296402</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-3.350962282777374</v>
+        <v>36.260515829235</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.28507647906196</v>
+        <v>36.26051586286513</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.99438549340361</v>
+        <v>36.2605158730517</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.04516134356948</v>
+        <v>36.26051588254629</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.14339245870098</v>
+        <v>36.26051589403417</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.20918247439954</v>
+        <v>36.26051589914046</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.8954834800783686</v>
+        <v>36.26051585607837</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.26563853581199</v>
+        <v>36.26051589264232</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.43130973474773</v>
+        <v>36.26051590139237</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.066215642666442</v>
+        <v>36.26051586218417</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.3228573503599</v>
+        <v>36.26051589763706</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.89038871543827</v>
+        <v>36.26051591093832</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-9.021473318181712</v>
+        <v>36.26051588096021</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.26551094377079</v>
+        <v>36.26051591917529</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.46037153056387</v>
+        <v>36.26051593365115</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.768759935425507</v>
+        <v>36.26051588804036</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.88767174409911</v>
+        <v>36.2605159269477</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.59912098604623</v>
+        <v>36.26051594028217</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.54291204519593</v>
+        <v>36.26051594370084</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.08317780928003</v>
+        <v>36.26051595835524</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.31518640245052</v>
+        <v>36.26051596453419</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>3.862121182634677</v>
+        <v>36.26051591264096</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.32010309178751</v>
+        <v>36.26051595684849</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.22821563409278</v>
+        <v>36.26051596758928</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>5.781949801649208</v>
+        <v>36.26051591311758</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.09312089816448</v>
+        <v>36.26051594982876</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.66686630310511</v>
+        <v>36.26051596338932</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.270236297918501</v>
+        <v>36.26051593295686</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.96681140789401</v>
+        <v>36.2605159725122</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.99805541347437</v>
+        <v>36.2605159872741</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.34274385020882</v>
+        <v>36.26051594203744</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.04943870306152</v>
+        <v>36.26051598223081</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.72261692866207</v>
+        <v>36.26051599559275</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.88510891118572</v>
+        <v>36.26051599738954</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.38545919752275</v>
+        <v>36.2605160114701</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>53.61649959739882</v>
+        <v>36.26051601684531</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.90687455641609</v>
+        <v>36.26051596300527</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.93830074719497</v>
+        <v>36.26051600755546</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>51.47360762348679</v>
+        <v>36.26051601833426</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>5.36418657033564</v>
+        <v>36.26051581817278</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.23929468141211</v>
+        <v>36.26051585223928</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.28556226874954</v>
+        <v>36.26051586442713</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.211582490829358</v>
+        <v>36.26051584124681</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.10968250109789</v>
+        <v>36.26051587910442</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.55422065695713</v>
+        <v>36.26051589192883</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.085651761127078</v>
+        <v>36.26051584376793</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.55890106181062</v>
+        <v>36.26051588151822</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.37496968516447</v>
+        <v>36.26051589350598</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.82264875844869</v>
+        <v>36.26051590294483</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.68144472055326</v>
+        <v>36.26051591627618</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.43136923206568</v>
+        <v>36.26051592238423</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.4336397796532</v>
+        <v>36.26051587365145</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.21118631870387</v>
+        <v>36.26051591438533</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.76624419450954</v>
+        <v>36.2605159247399</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.176654190134254</v>
+        <v>36.26051588026043</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.11228708175989</v>
+        <v>36.26051592004536</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.78699549608752</v>
+        <v>36.26051593560542</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>0.624554939825309</v>
+        <v>36.26051590396121</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.02367908916612</v>
+        <v>36.26051594662955</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.52108291579799</v>
+        <v>36.26051596370402</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>9.55820056354392</v>
+        <v>36.26051591302782</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.45833815727357</v>
+        <v>36.26051595667026</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.47096957346806</v>
+        <v>36.26051597236831</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.54114960112477</v>
+        <v>36.26051597426275</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>46.00069467004497</v>
+        <v>36.26051599143847</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>51.06498710616892</v>
+        <v>36.26051599863789</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.70145710887481</v>
+        <v>36.26051594005099</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.2025072422872</v>
+        <v>36.26051598965321</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>51.28345875443829</v>
+        <v>36.26051600215139</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>14.58937725382052</v>
+        <v>36.26051593612554</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.62241071480656</v>
+        <v>36.26051597733213</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.24248131771837</v>
+        <v>36.26051599321407</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.09627257518824</v>
+        <v>36.26051596043609</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.13120652675413</v>
+        <v>36.26051600453303</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>43.36337326954328</v>
+        <v>36.26051602201361</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.17616317375577</v>
+        <v>36.26051597175393</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>49.33688027131876</v>
+        <v>36.26051601685308</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>57.22401441860593</v>
+        <v>36.26051603259994</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.15487434493096</v>
+        <v>36.26051603221975</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>65.68874239527051</v>
+        <v>36.2605160485232</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>71.76791049122372</v>
+        <v>36.26051605483229</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.32359524775352</v>
+        <v>36.26051599440542</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.71030455017882</v>
+        <v>36.26051604411983</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>69.53974171671344</v>
+        <v>36.26051605677385</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>7.868479099195351</v>
+        <v>36.26051582482393</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.90060725232252</v>
+        <v>36.26051585725145</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.42871849569683</v>
+        <v>36.26051586842415</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.389001224194857</v>
+        <v>36.26051584565365</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.27291474663316</v>
+        <v>36.26051588190553</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.0790914033729</v>
+        <v>36.26051589356378</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.83878537416982</v>
+        <v>36.26051584790365</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.10404018743878</v>
+        <v>36.26051588384171</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.29361659721265</v>
+        <v>36.26051589471491</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.30592394616865</v>
+        <v>36.26051590293731</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.14683001218009</v>
+        <v>36.26051591516148</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>45.3469402827533</v>
+        <v>36.260515920455</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.49456071788488</v>
+        <v>36.26051587399726</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.67380070052911</v>
+        <v>36.26051591320563</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.30307068580335</v>
+        <v>36.26051592250072</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.275695299909476</v>
+        <v>36.26051587833401</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.07682575714604</v>
+        <v>36.26051591597662</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.0710101650858</v>
+        <v>36.26051593016954</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.492951185834535</v>
+        <v>36.2605158993078</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.60121095571633</v>
+        <v>36.26051593988187</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.23654027831945</v>
+        <v>36.26051595535542</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.14934336685493</v>
+        <v>36.260515907866</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.50955437467281</v>
+        <v>36.26051594920393</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.70079132250515</v>
+        <v>36.2605159633903</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.61733994065039</v>
+        <v>36.26051596522838</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.94605290205837</v>
+        <v>36.26051598075616</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.29647907828388</v>
+        <v>36.26051598719567</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.49145162124667</v>
+        <v>36.26051593174939</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.86732524182489</v>
+        <v>36.26051597881159</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>51.22673740534319</v>
+        <v>36.26051599019765</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>15.5851185416955</v>
+        <v>36.26051592974657</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.22670054831183</v>
+        <v>36.26051596864807</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.34518826250736</v>
+        <v>36.26051598313897</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.57000757569361</v>
+        <v>36.26051595165499</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.00035970906775</v>
+        <v>36.2605159935816</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.57114938588242</v>
+        <v>36.26051600939699</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>23.95672867063735</v>
+        <v>36.26051596210499</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.27204628682524</v>
+        <v>36.26051600471489</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.53368516588103</v>
+        <v>36.26051601896523</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.84367543509998</v>
+        <v>36.26051601895612</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.20019912664901</v>
+        <v>36.26051603381836</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>69.61331391493843</v>
+        <v>36.26051603944498</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.34177956162913</v>
+        <v>36.26051598218155</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.31962655055813</v>
+        <v>36.26051602954129</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>67.41992937764054</v>
+        <v>36.26051604097056</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>9.414519220807279</v>
+        <v>36.26051582779459</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.85752336298844</v>
+        <v>36.26051586323968</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.84873797247592</v>
+        <v>36.2605158755664</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.448922408344174</v>
+        <v>36.26051585255678</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.25459979609021</v>
+        <v>36.26051589204501</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.62470630894339</v>
+        <v>36.26051590502732</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>14.78325709191056</v>
+        <v>36.26051585541379</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.00524387984966</v>
+        <v>36.26051589466972</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.76224013024703</v>
+        <v>36.26051590676474</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.00111840232731</v>
+        <v>36.26051591528237</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.29211101585842</v>
+        <v>36.2605159290547</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>52.02916025765711</v>
+        <v>36.26051593511185</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.85146781750528</v>
+        <v>36.26051588434051</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.29729162780687</v>
+        <v>36.26051592646245</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.89957006101305</v>
+        <v>36.26051593697833</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.10003382796444</v>
+        <v>36.26051589159933</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.66369409963696</v>
+        <v>36.26051593292486</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.19780189626586</v>
+        <v>36.26051594863861</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>6.447282423682871</v>
+        <v>36.26051591670071</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.78910389522296</v>
+        <v>36.2605159611009</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.1417013959373</v>
+        <v>36.260515978382</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.06233411361564</v>
+        <v>36.26051592628222</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.77166617528098</v>
+        <v>36.26051597158461</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>50.65768295490697</v>
+        <v>36.2605159874033</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.46825383732087</v>
+        <v>36.26051598812602</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.3877156860874</v>
+        <v>36.26051600586272</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>59.43393110114005</v>
+        <v>36.26051601303715</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.00916649429854</v>
+        <v>36.26051595229433</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.31364128472246</v>
+        <v>36.26051600350681</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>59.32105805313903</v>
+        <v>36.26051601611471</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>18.23729117009155</v>
+        <v>36.2605159467093</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.82061240979709</v>
+        <v>36.26051598944044</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.28005030192619</v>
+        <v>36.26051600541258</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>15.84662112172915</v>
+        <v>36.26051597236334</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.71674580594073</v>
+        <v>36.26051601819618</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.78314137596904</v>
+        <v>36.26051603580159</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.4599616685243</v>
+        <v>36.26051598408812</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.3403788135298</v>
+        <v>36.26051603081808</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>64.07802563798089</v>
+        <v>36.26051604663715</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.94124133705638</v>
+        <v>36.26051604513621</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.95515285163708</v>
+        <v>36.260516061942</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>78.97933687743446</v>
+        <v>36.26051606822433</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.49868913777765</v>
+        <v>36.26051600573037</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>68.69567884322302</v>
+        <v>36.26051605704731</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>76.42772249312151</v>
+        <v>36.2605160697817</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>8.273055845764887</v>
+        <v>36.26051582832383</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.62042917877308</v>
+        <v>36.26051586192347</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.62922672588002</v>
+        <v>36.26051587372268</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.872745141992908</v>
+        <v>36.26051585192015</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.36376041982192</v>
+        <v>36.26051588924463</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.7814985856454</v>
+        <v>36.26051590172449</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.71181414411233</v>
+        <v>36.26051585430169</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.72108155637606</v>
+        <v>36.26051589150721</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.502294465478</v>
+        <v>36.26051590312504</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.7066125103841</v>
+        <v>36.26051591169755</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.70672350262328</v>
+        <v>36.26051592487853</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>48.53063865216271</v>
+        <v>36.26051593079801</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.8522931503315</v>
+        <v>36.26051588272315</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.05008057229624</v>
+        <v>36.26051592262985</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>45.64998941840599</v>
+        <v>36.26051593274397</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>10.73129328988768</v>
+        <v>36.26051589081378</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.16293165312594</v>
+        <v>36.26051593001459</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.79367327979391</v>
+        <v>36.26051594515019</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.97765239662359</v>
+        <v>36.26051591496962</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.00562701630471</v>
+        <v>36.2605159569609</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.48099259202264</v>
+        <v>36.26051597364471</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.94703189618943</v>
+        <v>36.26051592367578</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>40.4133677629037</v>
+        <v>36.26051596663716</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.397244097248</v>
+        <v>36.26051598191844</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.09272535010605</v>
+        <v>36.26051598278457</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.70909178296717</v>
+        <v>36.26051599979144</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>56.86871098270075</v>
+        <v>36.2605160068041</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.82550549468221</v>
+        <v>36.26051594910322</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.78994999159664</v>
+        <v>36.26051599770316</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>56.86110237143545</v>
+        <v>36.260516009875</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.04094511278319</v>
+        <v>36.26051594394583</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.51278869027652</v>
+        <v>36.26051598448543</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.03264408440685</v>
+        <v>36.26051599988954</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.40231034069586</v>
+        <v>36.26051596854168</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.98250258140679</v>
+        <v>36.26051601186225</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.14581623028084</v>
+        <v>36.2605160289008</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.40467014146327</v>
+        <v>36.26051597939288</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>54.06559516772765</v>
+        <v>36.26051602371896</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>61.87317539997984</v>
+        <v>36.26051603901862</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.57724210438256</v>
+        <v>36.26051603776684</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>70.268292714777</v>
+        <v>36.26051605388103</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>76.40599899619804</v>
+        <v>36.26051606001717</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.309543346199</v>
+        <v>36.26051600061692</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>66.14475135810073</v>
+        <v>36.26051604926968</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>73.94483212758031</v>
+        <v>36.26051606160963</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.909810285377784</v>
+        <v>36.26051582469356</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.35105652924078</v>
+        <v>36.26051585943196</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.14083038600118</v>
+        <v>36.26051587120452</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.650795748961762</v>
+        <v>36.2605158477722</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.29693841634917</v>
+        <v>36.26051588654076</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.39764920523066</v>
+        <v>36.26051589893159</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>11.71528311201704</v>
+        <v>36.26051585050486</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.72880461527938</v>
+        <v>36.26051588897487</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.25352342377371</v>
+        <v>36.26051590049365</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.37172286917291</v>
+        <v>36.26051590900424</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.60952119403198</v>
+        <v>36.260515922175</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>48.09447708715241</v>
+        <v>36.26051592784642</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.86891191445315</v>
+        <v>36.26051587810444</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.62389625455261</v>
+        <v>36.26051591986801</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.70352456274223</v>
+        <v>36.26051592981094</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.036037298024411</v>
+        <v>36.26051588292002</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.48432595935361</v>
+        <v>36.26051592328918</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.72293776329386</v>
+        <v>36.26051593821727</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>3.15227535382197</v>
+        <v>36.26051590617931</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.24741889731688</v>
+        <v>36.26051594966148</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.14097204786482</v>
+        <v>36.26051596601477</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>12.55441425041493</v>
+        <v>36.26051591554511</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.91854635024117</v>
+        <v>36.2605159598264</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.46441041062924</v>
+        <v>36.26051597482203</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.30004356175429</v>
+        <v>36.2605159763647</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.10561482661494</v>
+        <v>36.26051599315193</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>54.77993388162361</v>
+        <v>36.26051599998809</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.52500509964375</v>
+        <v>36.2605159406686</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.86722488116943</v>
+        <v>36.26051599091599</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.55312181256862</v>
+        <v>36.26051600300076</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.05381540555351</v>
+        <v>36.26051593732305</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.37556661095253</v>
+        <v>36.26051597902125</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.7660042152266</v>
+        <v>36.26051599433232</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>12.29094945446687</v>
+        <v>36.26051596135976</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.76477680687493</v>
+        <v>36.26051600625282</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.61548797069637</v>
+        <v>36.26051602304785</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.5100751115461</v>
+        <v>36.26051597271367</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.86765622699405</v>
+        <v>36.26051601833539</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.50515606320192</v>
+        <v>36.26051603346001</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>60.06406151472549</v>
+        <v>36.26051603283084</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>67.89468097225847</v>
+        <v>36.26051604885704</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>73.73773656155662</v>
+        <v>36.26051605484977</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.70170037965948</v>
+        <v>36.26051599368353</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>63.70615164454495</v>
+        <v>36.26051604418723</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>71.23942204316475</v>
+        <v>36.26051605636921</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>2.306542072601609</v>
+        <v>36.26051581953037</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.75900427032742</v>
+        <v>36.26051585073161</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.47919188704869</v>
+        <v>36.26051586201368</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-0.5773826929723782</v>
+        <v>36.26051584015445</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.62869603667485</v>
+        <v>36.26051587487311</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.66637528079787</v>
+        <v>36.26051588679153</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>5.487333158010557</v>
+        <v>36.26051584192362</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.14427355753583</v>
+        <v>36.2605158764872</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.60947404367171</v>
+        <v>36.26051588760015</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.05939396695307</v>
+        <v>36.26051589645336</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.4626340379556</v>
+        <v>36.26051590873612</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.03530575792423</v>
+        <v>36.26051591445312</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.17467100916396</v>
+        <v>36.26051586951693</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.2157771976149</v>
+        <v>36.26051590695133</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.37094364401231</v>
+        <v>36.26051591658832</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.694705265580104</v>
+        <v>36.26051587906795</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.223067361732</v>
+        <v>36.26051591563107</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.64227811240051</v>
+        <v>36.26051593016606</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1.017769198693763</v>
+        <v>36.26051590064359</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.77308949289756</v>
+        <v>36.26051593991068</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.92998224874523</v>
+        <v>36.26051595589471</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.078922202722016</v>
+        <v>36.26051590870486</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.15678685449679</v>
+        <v>36.26051594881407</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.85678367851258</v>
+        <v>36.26051596350128</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.88110660847086</v>
+        <v>36.26051596529256</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.89691618360465</v>
+        <v>36.26051598114751</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>47.80271282555549</v>
+        <v>36.26051598792682</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>15.30162861691128</v>
+        <v>36.26051593364795</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.95143280709686</v>
+        <v>36.2605159793908</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.85962567539693</v>
+        <v>36.26051599116312</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.63337291356463</v>
+        <v>36.26051593105214</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.19477140501343</v>
+        <v>36.26051596897727</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.56104615053008</v>
+        <v>36.26051598382116</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.84216187641874</v>
+        <v>36.26051595320625</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.15295488679045</v>
+        <v>36.26051599387172</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>41.04743103630263</v>
+        <v>36.26051601022915</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.81244374442475</v>
+        <v>36.26051596329091</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.07003218896219</v>
+        <v>36.26051600478932</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.64230723817633</v>
+        <v>36.26051601952852</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.14916637538545</v>
+        <v>36.26051601910036</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.19524608360923</v>
+        <v>36.26051603420506</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>67.01559038022535</v>
+        <v>36.26051604013696</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.88744053879676</v>
+        <v>36.26051598407872</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.33862816761899</v>
+        <v>36.26051603000621</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>64.93451005988118</v>
+        <v>36.26051604192504</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.595387142263281</v>
+        <v>36.26051582640039</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.6888530958924</v>
+        <v>36.26051585970622</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.76246477131261</v>
+        <v>36.26051587154982</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.982216552726552</v>
+        <v>36.26051584969848</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.17284817914178</v>
+        <v>36.2605158866912</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.67307515764303</v>
+        <v>36.26051589922808</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.72551182952201</v>
+        <v>36.26051585203822</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.44779325693882</v>
+        <v>36.26051588892835</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.30023500637051</v>
+        <v>36.26051590059593</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.54794697175473</v>
+        <v>36.26051590930186</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.49530950549284</v>
+        <v>36.26051592244517</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.36750959456845</v>
+        <v>36.26051592839966</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.00219679988381</v>
+        <v>36.26051588064913</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.95718096821483</v>
+        <v>36.26051592031581</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>43.61153697317854</v>
+        <v>36.26051593045104</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.690564967480491</v>
+        <v>36.26051588852534</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.87634496054232</v>
+        <v>36.26051592738972</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.63420068840804</v>
+        <v>36.26051594262318</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>3.793047105023355</v>
+        <v>36.2605159124115</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.52740323830038</v>
+        <v>36.26051595404196</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.15625116950286</v>
+        <v>36.26051597084108</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>12.62899957923822</v>
+        <v>36.26051592106677</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.81130961850814</v>
+        <v>36.26051596367252</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>45.93043206662947</v>
+        <v>36.26051597905848</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>41.63736210680682</v>
+        <v>36.26051598004432</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.2050545951985</v>
+        <v>36.26051599700698</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.44276269002427</v>
+        <v>36.26051600406525</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.61820376486202</v>
+        <v>36.26051594669733</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.33684293244954</v>
+        <v>36.26051599501773</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.53000249202094</v>
+        <v>36.26051600726021</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.22195391764059</v>
+        <v>36.26051594174773</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.45642684580797</v>
+        <v>36.26051598195894</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.1014599585376</v>
+        <v>36.26051599746776</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.41466895568714</v>
+        <v>36.26051596609226</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.71730795756923</v>
+        <v>36.26051600906217</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.02663530352732</v>
+        <v>36.26051602621939</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.30560213616582</v>
+        <v>36.2605159769007</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.69399950699392</v>
+        <v>36.2605160208826</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.63154837699554</v>
+        <v>36.26051603628841</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>60.32702779015472</v>
+        <v>36.26051603514827</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>67.95895627004458</v>
+        <v>36.26051605121502</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.16934662167921</v>
+        <v>36.26051605739175</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.30640853230584</v>
+        <v>36.26051599830861</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>63.88473430350039</v>
+        <v>36.2605160466841</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.80936044368599</v>
+        <v>36.26051605909931</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>11.35476689305333</v>
+        <v>36.26051583348342</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>27.28080354286351</v>
+        <v>36.26051586609974</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.75521742796156</v>
+        <v>36.26051587723201</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.723849300581268</v>
+        <v>36.26051585642524</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.76454326131387</v>
+        <v>36.26051589291476</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.50422665032268</v>
+        <v>36.26051590453728</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.5129762701122</v>
+        <v>36.26051585881452</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.85599473240503</v>
+        <v>36.26051589495851</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.01571810004548</v>
+        <v>36.26051590585799</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.45024031651255</v>
+        <v>36.26051591411163</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>47.2316824225774</v>
+        <v>36.26051592659571</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>50.42875902198645</v>
+        <v>36.26051593206975</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.72059400824227</v>
+        <v>36.26051588538521</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.27569840568459</v>
+        <v>36.26051592412045</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>47.29038263360007</v>
+        <v>36.2605159337602</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>12.79869697492562</v>
+        <v>36.26051589156241</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.53854232720015</v>
+        <v>36.26051592970234</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.34216444593119</v>
+        <v>36.26051594376167</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.590920884269085</v>
+        <v>36.26051591480206</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.91099398032632</v>
+        <v>36.26051595596667</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>38.34357534708708</v>
+        <v>36.26051597127419</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.59489860215038</v>
+        <v>36.26051592344815</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.10141559247477</v>
+        <v>36.26051596527678</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.11495195880172</v>
+        <v>36.26051597940783</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>45.35257271514637</v>
+        <v>36.26051598079078</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.66920449794</v>
+        <v>36.26051599678634</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.93495272153542</v>
+        <v>36.26051600324075</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.40734271150201</v>
+        <v>36.26051594744089</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>50.2881017777026</v>
+        <v>36.26051599458458</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>56.57650941422051</v>
+        <v>36.26051600599737</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.77980472408309</v>
+        <v>36.2605159425598</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.43688982917599</v>
+        <v>36.26051598195141</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>46.22590576986647</v>
+        <v>36.26051599633224</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.75041867749819</v>
+        <v>36.26051596638754</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.47033419393607</v>
+        <v>36.26051600884816</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.69673243109196</v>
+        <v>36.26051602453338</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.48394625341819</v>
+        <v>36.26051597697839</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>55.04316756194537</v>
+        <v>36.26051602007747</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>61.97982054550094</v>
+        <v>36.26051603428245</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>62.83397283571475</v>
+        <v>36.26051603357308</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.15288786819181</v>
+        <v>36.26051604879201</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>75.33082515714663</v>
+        <v>36.26051605445123</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.22140894228833</v>
+        <v>36.26051599702402</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>65.88938850023631</v>
+        <v>36.26051604429255</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>72.90083359948144</v>
+        <v>36.26051605581685</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.659837539791642</v>
+        <v>36.26051582712694</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.09549791483823</v>
+        <v>36.26051586166993</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.82070887535135</v>
+        <v>36.26051587342442</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.62141788866878</v>
+        <v>36.26051585027603</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.29191578776506</v>
+        <v>36.26051588881338</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.31438477176854</v>
+        <v>36.26051590119733</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>12.71244322107619</v>
+        <v>36.26051585305788</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.70991467991536</v>
+        <v>36.26051589130414</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>40.17801203253633</v>
+        <v>36.26051590282034</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.3372127407772</v>
+        <v>36.26051591123252</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.56567133063379</v>
+        <v>36.26051592438134</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>49.06239459091054</v>
+        <v>36.26051593003461</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.90765262532571</v>
+        <v>36.26051588051622</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>39.6101492947891</v>
+        <v>36.26051592203282</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>45.61955271656473</v>
+        <v>36.26051593195653</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.546245571824585</v>
+        <v>36.2605158853064</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.95926562984033</v>
+        <v>36.26051592543587</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.12354857346281</v>
+        <v>36.26051594036377</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.821216621323188</v>
+        <v>36.26051590856061</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.91437517186677</v>
+        <v>36.26051595176507</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.71986449066104</v>
+        <v>36.26051596812049</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>13.24263133033852</v>
+        <v>36.26051591793043</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.55626705509283</v>
+        <v>36.26051596193359</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.03557487355179</v>
+        <v>36.26051597694611</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.94910059922272</v>
+        <v>36.26051597838764</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>50.73606909484304</v>
+        <v>36.26051599516882</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>55.43701036041239</v>
+        <v>36.2605160019626</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>19.27530133006574</v>
+        <v>36.2605159429384</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.52126127594385</v>
+        <v>36.26051599292514</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>55.09728474240943</v>
+        <v>36.26051600495842</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.34107496377658</v>
+        <v>36.26051593912569</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.61028103943769</v>
+        <v>36.26051598057028</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.92480566838889</v>
+        <v>36.26051599587499</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>12.77201618118469</v>
+        <v>36.26051596313884</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.21184586200305</v>
+        <v>36.26051600773723</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>45.96915130360212</v>
+        <v>36.26051602453506</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>24.96446275608979</v>
+        <v>36.2605159744617</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>52.25407542530374</v>
+        <v>36.26051601979101</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>59.82214718903774</v>
+        <v>36.2605160349299</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>60.41967256128008</v>
+        <v>36.26051603419167</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.22662426988711</v>
+        <v>36.26051605018553</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>74.06391019937617</v>
+        <v>36.26051605615149</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.14752889755869</v>
+        <v>36.26051599531537</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.03293068174179</v>
+        <v>36.26051604551816</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>71.47217485209808</v>
+        <v>36.26051605767328</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.144</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.232</v>
+        <v>17.623</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.843</v>
+        <v>-0.966</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.795</v>
+        <v>24.573</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.594</v>
+        <v>8.461</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36.26051581879265</v>
+        <v>9.192283930450063</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.26051585286813</v>
+        <v>16.57286172458339</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.26051586508237</v>
+        <v>19.60041387879299</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.26051584199713</v>
+        <v>-1.627668635301813</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.26051587984755</v>
+        <v>19.81998320494024</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.26051589277957</v>
+        <v>23.26016551000067</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36.26051584433203</v>
+        <v>-0.4576564870538107</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.26051588207184</v>
+        <v>30.41878378123005</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.26051589410299</v>
+        <v>34.19463476230889</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.26051590327942</v>
+        <v>30.1813935291084</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.26051591673566</v>
+        <v>35.9021286298815</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.26051592284919</v>
+        <v>38.23230151382327</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.26051587399885</v>
+        <v>10.88327779827112</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.26051591466346</v>
+        <v>27.95038742856502</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.26051592508458</v>
+        <v>35.36075537896888</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.26051588350456</v>
+        <v>17.33534882046446</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.26051592336537</v>
+        <v>33.52193270988685</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.26051593909269</v>
+        <v>41.05889449004138</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.26051590742772</v>
+        <v>6.92111787695281</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.26051595013924</v>
+        <v>28.65538588656324</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.26051596748621</v>
+        <v>40.60409660760384</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.2605159164448</v>
+        <v>6.474084325780577</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.26051596014691</v>
+        <v>44.89347519719629</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.26051597603048</v>
+        <v>61.01131359675831</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.26051597732927</v>
+        <v>42.46016486562899</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.2605159947059</v>
+        <v>51.38702708933744</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.26051600194862</v>
+        <v>59.43104829202989</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.26051594306017</v>
+        <v>18.75909459682617</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.26051599271999</v>
+        <v>56.32500441283358</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.26051600535129</v>
+        <v>65.06676459973926</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.26051593889787</v>
+        <v>22.71858845730703</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.2605159802</v>
+        <v>42.48941290118015</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.26051599619689</v>
+        <v>50.62724341043996</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.26051596338215</v>
+        <v>9.668390729877448</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.26051600754398</v>
+        <v>41.55924453473436</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.26051602524385</v>
+        <v>51.37760098723106</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.26051597460792</v>
+        <v>12.27582482833244</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.26051601978319</v>
+        <v>61.64663351218029</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.26051603566871</v>
+        <v>74.19218053765555</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.26051603470143</v>
+        <v>73.05384090111134</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.26051605116862</v>
+        <v>80.14029109007653</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36.26051605751414</v>
+        <v>89.20907001392057</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.26051599682436</v>
+        <v>29.23691738574821</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.26051604660312</v>
+        <v>77.02552704126423</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.26051605937847</v>
+        <v>87.18893141948998</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.26051582668724</v>
+        <v>12.94678014936251</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.26051586112009</v>
+        <v>36.81968805224797</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.26051587275239</v>
+        <v>41.34355773596809</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.26051584931796</v>
+        <v>7.525672904312646</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.26051588789311</v>
+        <v>43.27673671264267</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26051589997608</v>
+        <v>47.3547859451827</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.26051585190761</v>
+        <v>11.12301681985707</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.26051589005866</v>
+        <v>61.18802951228614</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.26051590135773</v>
+        <v>64.79736790529235</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.2605159094589</v>
+        <v>61.48168046308597</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.26051592237754</v>
+        <v>69.43785375800084</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.2605159278422</v>
+        <v>68.94350888572839</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.26051587854582</v>
+        <v>18.11869928097155</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.26051591988078</v>
+        <v>56.21824826908205</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.26051592959945</v>
+        <v>61.57087497921191</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.26051588312436</v>
+        <v>13.31540371977016</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.2605159231264</v>
+        <v>38.85344518859353</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.26051593778985</v>
+        <v>44.80965427616671</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.26051590587292</v>
+        <v>5.211702024250965</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.26051594908428</v>
+        <v>36.16328286333116</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.26051596504431</v>
+        <v>44.54323048492675</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.26051591504537</v>
+        <v>6.237368875258266</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.26051595895091</v>
+        <v>56.27157545201069</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.26051597358953</v>
+        <v>68.50564493206024</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.26051597503131</v>
+        <v>53.96286434765686</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.26051599146324</v>
+        <v>65.14504333578061</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.26051599805799</v>
+        <v>67.48310851856728</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>36.26051593941339</v>
+        <v>17.09155723609165</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.26051598912088</v>
+        <v>68.21277650364857</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.26051600088235</v>
+        <v>71.92286561149774</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.2605159361983</v>
+        <v>14.61047168215172</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.26051597750007</v>
+        <v>45.92392915004734</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.26051599243593</v>
+        <v>52.23503190116953</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.26051595987942</v>
+        <v>3.557485103864575</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.26051600450558</v>
+        <v>46.14495556230785</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.26051602074967</v>
+        <v>52.25946460427238</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.26051597098382</v>
+        <v>7.523749094371095</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.26051601620062</v>
+        <v>69.7632788155516</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.2605160308704</v>
+        <v>78.65264677760156</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.26051603039186</v>
+        <v>78.4740692876082</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.26051604608951</v>
+        <v>88.74366224862607</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.26051605185297</v>
+        <v>92.84021418302868</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.26051599139132</v>
+        <v>19.20115327272531</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.26051604138191</v>
+        <v>85.07271250291595</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.26051605316697</v>
+        <v>89.79543035568108</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.26051582596102</v>
+        <v>19.27959751556628</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.26051586044544</v>
+        <v>38.40278478300272</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.26051587198842</v>
+        <v>40.60596292567492</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.26051584852336</v>
+        <v>8.216139877763606</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.26051588718195</v>
+        <v>41.53339507362932</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.26051589916664</v>
+        <v>42.83539886594912</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.26051585109123</v>
+        <v>13.02897460369078</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.2605158893014</v>
+        <v>59.25226062908439</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.26051590052131</v>
+        <v>60.05138469039288</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.26051590888006</v>
+        <v>58.67715091283436</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.26051592181001</v>
+        <v>67.68915611026429</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.26051592726976</v>
+        <v>66.41559244631819</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.26051587800963</v>
+        <v>22.17154636679976</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.2605159194114</v>
+        <v>52.84888928363191</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.26051592907532</v>
+        <v>56.73920600517792</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.26051588362066</v>
+        <v>23.37314425716626</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.26051592379017</v>
+        <v>46.84191684365535</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.26051593832327</v>
+        <v>49.50701795741106</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.26051590650678</v>
+        <v>10.2861763241239</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.26051594995227</v>
+        <v>42.49834733442493</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.26051596573832</v>
+        <v>46.56087342555028</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.26051591568972</v>
+        <v>13.35501484949403</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.26051595977425</v>
+        <v>62.87471136949479</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.26051597429322</v>
+        <v>71.00143922208298</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.26051597596841</v>
+        <v>59.88218194755846</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.2605159924103</v>
+        <v>70.15877372447268</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.26051599897209</v>
+        <v>71.16397587647857</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.26051594022865</v>
+        <v>26.82166064337508</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.2605159901013</v>
+        <v>72.00536977272444</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.26051600177471</v>
+        <v>73.38235380314082</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.26051593717216</v>
+        <v>22.97060380768722</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.2605159786397</v>
+        <v>52.19411596171008</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.26051599345412</v>
+        <v>54.79175778314891</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.26051596093387</v>
+        <v>7.971626848442746</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.26051600579289</v>
+        <v>51.915613516718</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.26051602187198</v>
+        <v>53.14670819971411</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.26051597207847</v>
+        <v>13.02431920151237</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.26051601747514</v>
+        <v>74.8116340182699</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.26051603203005</v>
+        <v>79.08870509169536</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.2605160317091</v>
+        <v>83.2402480532775</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.26051604742018</v>
+        <v>92.37153515862983</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.26051605315158</v>
+        <v>95.4636368474754</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.26051599262129</v>
+        <v>28.49526004712531</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.26051604274912</v>
+        <v>88.98428701073978</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.26051605444595</v>
+        <v>91.08803511505684</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>36.26051581761299</v>
+        <v>12.16587413685546</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.26051585126516</v>
+        <v>19.17996559598144</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.26051586317567</v>
+        <v>22.53473017556545</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.2605158403051</v>
+        <v>-0.04234620803336853</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.26051587769365</v>
+        <v>20.70703022728702</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.26051589027833</v>
+        <v>24.5598529031447</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.26051584242305</v>
+        <v>1.346996391227758</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.2605158796803</v>
+        <v>30.98936845278801</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.26051589140742</v>
+        <v>35.25155779425492</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.26051590080518</v>
+        <v>30.21277240976013</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.26051591399419</v>
+        <v>34.60028590450112</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.26051592004746</v>
+        <v>40.64954258330078</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.26051587216128</v>
+        <v>20.36261330606259</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.26051591224049</v>
+        <v>35.67591330990942</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.26051592239448</v>
+        <v>42.6808324792266</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.26051588068277</v>
+        <v>18.54160919045088</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.26051592004508</v>
+        <v>32.85233614111903</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.2605159353569</v>
+        <v>40.5518477256153</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>36.26051590398919</v>
+        <v>7.981514686935398</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.26051594618804</v>
+        <v>27.72676070968778</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.26051596304013</v>
+        <v>39.879971003978</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.26051591263336</v>
+        <v>6.352278095104634</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.26051595577124</v>
+        <v>41.89571090684728</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.2605159712304</v>
+        <v>58.15184566397825</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.26051597287572</v>
+        <v>37.29634602539244</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.26051598991175</v>
+        <v>45.39414084223273</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.2605159970765</v>
+        <v>56.12033654262727</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.26051593922979</v>
+        <v>22.69412696698456</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.26051598814831</v>
+        <v>56.21463985548299</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.26051600044493</v>
+        <v>63.69061073478174</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.26051593529608</v>
+        <v>26.20047875204841</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.26051597605702</v>
+        <v>43.09026102652274</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.26051599163713</v>
+        <v>51.40022275681326</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.26051595920595</v>
+        <v>10.3529197660647</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.26051600279886</v>
+        <v>39.32886916256622</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.26051602000933</v>
+        <v>49.27664642652319</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.26051597006815</v>
+        <v>13.49321134818888</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.26051601463866</v>
+        <v>58.92884853677329</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.26051603010874</v>
+        <v>71.75099854587837</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.26051602964772</v>
+        <v>67.80470359602155</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.26051604582661</v>
+        <v>73.01043976265508</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.26051605208501</v>
+        <v>85.61066513650159</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.26051599240476</v>
+        <v>33.10606600209331</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.26051604144371</v>
+        <v>75.06163117940365</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.26051605389484</v>
+        <v>83.96283093141717</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.26051582801812</v>
+        <v>22.12444668895365</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.26051586233336</v>
+        <v>40.72097881110851</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.26051587411916</v>
+        <v>41.78905584986266</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.26051585145998</v>
+        <v>9.138709328056809</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.26051588962864</v>
+        <v>43.59910995397431</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.26051590209072</v>
+        <v>45.47109221782542</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.26051585402301</v>
+        <v>14.25621318424836</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.260515891993</v>
+        <v>59.41233515576955</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.26051590358813</v>
+        <v>60.54757646178602</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.26051591201705</v>
+        <v>54.78731191493954</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.26051592531761</v>
+        <v>62.07361169407508</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.2605159311972</v>
+        <v>64.45736722804962</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.26051588219541</v>
+        <v>25.11124989587534</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.26051592275953</v>
+        <v>47.74233294487155</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.26051593280337</v>
+        <v>53.48424003701298</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.26051589180113</v>
+        <v>29.25228660494044</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.26051593184064</v>
+        <v>52.53512014846935</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.26051594693207</v>
+        <v>54.5807511641503</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.26051591576407</v>
+        <v>15.58320240678642</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.26051595874571</v>
+        <v>46.63866822378263</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.26051597538276</v>
+        <v>53.0846943351515</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.26051592487948</v>
+        <v>18.76256030488434</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.26051596873714</v>
+        <v>67.37235419975944</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.26051598396387</v>
+        <v>76.7728352303488</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.26051598477494</v>
+        <v>64.48985157005846</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.26051600190996</v>
+        <v>72.82163293855291</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.26051600889293</v>
+        <v>78.8873764245545</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.26051595019954</v>
+        <v>37.51875000811932</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.2605159995958</v>
+        <v>77.00859422210374</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.26051601169743</v>
+        <v>80.77517338074622</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.26051594513495</v>
+        <v>27.48516416066186</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.26051598651637</v>
+        <v>53.2426291774136</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.26051600189121</v>
+        <v>56.78255640906154</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.26051596960936</v>
+        <v>10.47852055077903</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.26051601393295</v>
+        <v>50.02608736050414</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.2605160309415</v>
+        <v>55.08806347963269</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.26051598083899</v>
+        <v>15.94197670698501</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.26051602606096</v>
+        <v>74.08533391273717</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.26051604132786</v>
+        <v>81.08494882475219</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.26051603998463</v>
+        <v>84.15254494121233</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.260516056264</v>
+        <v>89.97449912194163</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.26051606238065</v>
+        <v>97.08071493714364</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.26051600198733</v>
+        <v>36.60001195972104</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.26051605146657</v>
+        <v>86.10330146344025</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36.26051606374713</v>
+        <v>91.58429895917298</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.26051584124116</v>
+        <v>13.58652259414533</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.26051587317077</v>
+        <v>36.82055356867094</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.26051588351457</v>
+        <v>39.1880133221435</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.26051586270401</v>
+        <v>6.868696173548027</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.26051589848213</v>
+        <v>43.55642814698989</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.26051590925077</v>
+        <v>46.12478720917626</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.26051586506558</v>
+        <v>11.63762967271527</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.26051590039247</v>
+        <v>62.85319189777094</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.2605159104723</v>
+        <v>62.94311081259187</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.26051591753554</v>
+        <v>56.88996035241304</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.26051592945399</v>
+        <v>64.99397792783425</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.2605159344106</v>
+        <v>66.8315677254981</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.26051588871213</v>
+        <v>14.40497784049247</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.26051592637085</v>
+        <v>40.93955768707299</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.26051593509896</v>
+        <v>47.37906224742395</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.26051589732288</v>
+        <v>21.87571107593024</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.2605159346021</v>
+        <v>52.24458894581235</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.26051594764919</v>
+        <v>53.12851643047803</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.26051591912356</v>
+        <v>8.507447745672156</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.26051595945432</v>
+        <v>46.49526953561816</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.26051597367135</v>
+        <v>50.33949534399765</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.26051592757283</v>
+        <v>13.31076116690963</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.26051596841317</v>
+        <v>70.85014681825488</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.26051598147338</v>
+        <v>75.60375538796526</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.26051598222961</v>
+        <v>62.67113013279145</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.26051599746121</v>
+        <v>73.42333660969845</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.26051600337862</v>
+        <v>77.34050824958072</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.26051594906069</v>
+        <v>26.00917237530562</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.260515994815</v>
+        <v>75.9217078784887</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.26051600527637</v>
+        <v>77.86201279525443</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.26051594453814</v>
+        <v>21.29951080550833</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.26051598296623</v>
+        <v>53.63687826925074</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.26051599626233</v>
+        <v>56.03712318877187</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.26051596705702</v>
+        <v>4.598522782405535</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.26051600861622</v>
+        <v>49.44806395866436</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.26051602310431</v>
+        <v>52.11156589015225</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.2605159772369</v>
+        <v>11.11148577523032</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.26051601923466</v>
+        <v>76.36900211988809</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.26051603233353</v>
+        <v>79.32164664610401</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.26051603126422</v>
+        <v>80.29340409977773</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.26051604581718</v>
+        <v>88.98271675914991</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.26051605099782</v>
+        <v>93.61593854359414</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.26051599515054</v>
+        <v>24.16317919063324</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36.26051604108603</v>
+        <v>84.60473181588281</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.26051605162538</v>
+        <v>88.26916833042804</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.26051582096493</v>
+        <v>5.314660295774168</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.26051585192224</v>
+        <v>7.899095551364894</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.26051586301331</v>
+        <v>11.77996742088956</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.26051584154354</v>
+        <v>-1.420922950871837</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.26051587617771</v>
+        <v>13.87257935542064</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.26051588773664</v>
+        <v>16.67412435868806</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.26051584329149</v>
+        <v>-1.964522341761359</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.26051587763323</v>
+        <v>22.00093203774665</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.26051588847793</v>
+        <v>24.75600189399298</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.26051589737055</v>
+        <v>27.258317498274</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.26051590946442</v>
+        <v>32.45268747831853</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.26051591492248</v>
+        <v>32.78130949125962</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.26051587025234</v>
+        <v>6.341188631520556</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.26051590747871</v>
+        <v>17.9186073544532</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.26051591685194</v>
+        <v>24.87149044966576</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.26051587906959</v>
+        <v>12.75510005616815</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.26051591539463</v>
+        <v>27.95574920548734</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.26051592958954</v>
+        <v>35.85884953305717</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.26051590064681</v>
+        <v>5.948863049042568</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.26051593987491</v>
+        <v>27.62272106613244</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.26051595530045</v>
+        <v>37.33732440120367</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.26051590872074</v>
+        <v>6.107336568307854</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.26051594863624</v>
+        <v>42.53337060277921</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.26051596288161</v>
+        <v>56.27919578466165</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.2605159650636</v>
+        <v>41.26678665168949</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.26051598053751</v>
+        <v>49.75589083317374</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.2605159869893</v>
+        <v>54.84149632773921</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.2605159331927</v>
+        <v>14.98595281026766</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.26051597864171</v>
+        <v>50.60134189580525</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.26051599003624</v>
+        <v>57.60304681128531</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.26051593048339</v>
+        <v>18.5696869616365</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.26051596811757</v>
+        <v>38.92661665508446</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.26051598261471</v>
+        <v>46.7091841125291</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.26051595290981</v>
+        <v>8.571561713447228</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.26051599354821</v>
+        <v>41.76057299858986</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.26051600928518</v>
+        <v>48.67846181160192</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.26051596290529</v>
+        <v>12.26176124067822</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.2605160041637</v>
+        <v>60.49257549049081</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.26051601844775</v>
+        <v>70.1718687254114</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.26051601853627</v>
+        <v>71.21770903049976</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.26051603326397</v>
+        <v>79.92008959146098</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.26051603892665</v>
+        <v>84.74955264616774</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.26051598343246</v>
+        <v>27.91390700488085</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.26051602910596</v>
+        <v>75.99157174437931</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.26051604056447</v>
+        <v>84.65243755972389</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.2605158193677</v>
+        <v>4.337399710900126</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.26051585332669</v>
+        <v>8.0046004395046</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.26051586516012</v>
+        <v>12.15725024930595</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.26051584217353</v>
+        <v>-5.238934500885744</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.26051587997657</v>
+        <v>11.36450707327337</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.26051589245686</v>
+        <v>15.84282945101649</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.26051584431915</v>
+        <v>-7.875441797013959</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.2605158819087</v>
+        <v>19.17501217652265</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.26051589355488</v>
+        <v>24.16787813283319</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.26051590250176</v>
+        <v>15.91900787905073</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.26051591574139</v>
+        <v>21.97207560529064</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.26051592165958</v>
+        <v>26.29999843461814</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.26051587312916</v>
+        <v>1.205966533446666</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.26051591348172</v>
+        <v>11.43500111755489</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.26051592356575</v>
+        <v>16.71936345474925</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.26051588135113</v>
+        <v>2.143224469016946</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.26051592098246</v>
+        <v>9.030853207701849</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.26051593612069</v>
+        <v>16.74694620950248</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.2605159046717</v>
+        <v>-5.736095948975471</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.26051594724387</v>
+        <v>6.342881452460329</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.26051596388302</v>
+        <v>17.69277702487423</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.26051591332865</v>
+        <v>-11.42726007255019</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.26051595675649</v>
+        <v>17.49339064343715</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.2605159720389</v>
+        <v>33.56170535993849</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.26051597350767</v>
+        <v>13.76234250451888</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.26051599055951</v>
+        <v>22.64006589920243</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.26051599763031</v>
+        <v>32.17956329655837</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.26051593932775</v>
+        <v>-1.225566633174939</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.26051598841562</v>
+        <v>23.29688203075364</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.26051600059355</v>
+        <v>29.22449528425159</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.26051593550693</v>
+        <v>7.733151968347233</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.26051597649121</v>
+        <v>18.30264768881677</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.26051599197399</v>
+        <v>30.03353345614545</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.26051595948405</v>
+        <v>-3.319139851722003</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.26051600342746</v>
+        <v>18.36880408338216</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.26051602049525</v>
+        <v>31.28605613987876</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.26051597028832</v>
+        <v>-5.3496331667702</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.26051601509216</v>
+        <v>34.29663109346596</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.26051603047951</v>
+        <v>50.46321928068635</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.26051602973269</v>
+        <v>42.78599851237738</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.2605160460005</v>
+        <v>49.78981711182182</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.26051605220086</v>
+        <v>62.48614213899349</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>36.26051599208125</v>
+        <v>5.293340090790309</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.26051604131614</v>
+        <v>41.79032686136929</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.26051605370687</v>
+        <v>51.54182995989071</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>36.26051584238046</v>
+        <v>12.38766625943152</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.26051587549271</v>
+        <v>34.61506615413697</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.26051588666061</v>
+        <v>40.55030610648696</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.26051586572983</v>
+        <v>8.141901107466591</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.26051590295972</v>
+        <v>47.10483403992737</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.2605159144756</v>
+        <v>50.81888019495331</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.26051586856207</v>
+        <v>13.285953338699</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.26051590528503</v>
+        <v>64.34176227623334</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.26051591612282</v>
+        <v>67.90553314562564</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.26051592343239</v>
+        <v>65.59726061865742</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.26051593594509</v>
+        <v>75.312010174013</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.26051594120954</v>
+        <v>73.59102855111232</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.26051589362135</v>
+        <v>23.81643215370431</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.26051593303927</v>
+        <v>56.14210217005481</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.26051594247468</v>
+        <v>67.28403737726241</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.26051589753209</v>
+        <v>12.30106518940725</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.26051593608197</v>
+        <v>36.91567228988521</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.26051595005696</v>
+        <v>40.61793970337363</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.26051592109008</v>
+        <v>-0.7710068742132457</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.26051596290596</v>
+        <v>34.44830911812939</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.26051597800516</v>
+        <v>38.54972232478141</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.26051593015251</v>
+        <v>2.509266797111902</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.26051597248475</v>
+        <v>54.52637797663034</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.26051598642081</v>
+        <v>62.45475466731976</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.26051598725879</v>
+        <v>50.39282428190782</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.26051600321659</v>
+        <v>61.07993456330924</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.26051600944628</v>
+        <v>60.92745819370664</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.26051595302361</v>
+        <v>18.21757778862316</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.26051600068211</v>
+        <v>64.41419734219753</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.2605160118712</v>
+        <v>67.24118613793118</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.26051594729886</v>
+        <v>13.21530495687863</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.26051598705082</v>
+        <v>42.6410753771178</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.26051600130359</v>
+        <v>47.14454373632337</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.26051597159029</v>
+        <v>0.7047597550675846</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.26051601471749</v>
+        <v>45.95459685646395</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.26051603009042</v>
+        <v>48.21945848350501</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.26051598244525</v>
+        <v>5.637241978204273</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.2605160259935</v>
+        <v>68.70194397598478</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.26051603996919</v>
+        <v>73.77872483870867</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.26051603884593</v>
+        <v>74.95746705350983</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.26051605401308</v>
+        <v>84.92747826279555</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.26051605947541</v>
+        <v>85.62996845952206</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.26051600149074</v>
+        <v>22.00982966968069</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.26051604931036</v>
+        <v>81.67621619310428</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.26051606054759</v>
+        <v>87.41713625634895</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.26051581634282</v>
+        <v>6.758655438910854</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.26051584697049</v>
+        <v>8.512987816775226</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.2605158579771</v>
+        <v>13.51815837778825</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.26051583565492</v>
+        <v>-1.348971696294267</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.26051586981499</v>
+        <v>9.181021151802181</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.26051588137513</v>
+        <v>14.40897496724263</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.26051583730005</v>
+        <v>-1.400445982315215</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.2605158712481</v>
+        <v>18.83882296713686</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.2605158820371</v>
+        <v>23.71967197821234</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.26051589081472</v>
+        <v>19.99212333749454</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.26051590262086</v>
+        <v>23.60416166606679</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.26051590795379</v>
+        <v>27.25407608938784</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.26051586390416</v>
+        <v>4.0730852767506</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.26051590106016</v>
+        <v>16.21337129862067</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.26051591030213</v>
+        <v>21.09828228037584</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.26051587082476</v>
+        <v>8.596618143145566</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.26051590655938</v>
+        <v>18.28047307318423</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.26051592068787</v>
+        <v>29.6636327302098</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.26051589078291</v>
+        <v>2.268863453740625</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.26051592923988</v>
+        <v>14.68100663692408</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.26051594467115</v>
+        <v>28.93375218461086</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.26051589868428</v>
+        <v>1.097586738355655</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.26051593793561</v>
+        <v>28.12650686234351</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.26051595215209</v>
+        <v>46.64695633312016</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.26051595449074</v>
+        <v>23.4646753035772</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.2605159695529</v>
+        <v>30.65167564666956</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.26051597603303</v>
+        <v>40.92849951805534</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>36.26051592298366</v>
+        <v>5.049789074045858</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.26051596791583</v>
+        <v>32.99565654422777</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.26051597934619</v>
+        <v>43.07080774103817</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.26051592224505</v>
+        <v>16.21794165682094</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.26051595925578</v>
+        <v>30.65034740538846</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.26051597380655</v>
+        <v>43.78365702144276</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.26051594313762</v>
+        <v>5.077378336131741</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.26051598296287</v>
+        <v>27.95016310078956</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.26051599887743</v>
+        <v>41.53506958464021</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.26051595291531</v>
+        <v>8.295078099774511</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.26051599346462</v>
+        <v>46.3921215700263</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.26051600785081</v>
+        <v>63.00258412279867</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.26051600813818</v>
+        <v>52.94663099551378</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.26051602257353</v>
+        <v>60.43102675981649</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.26051602828161</v>
+        <v>74.87576553095782</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.26051597335818</v>
+        <v>16.88026951381391</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.26051601863474</v>
+        <v>56.85900209314896</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.2605160301788</v>
+        <v>69.87572035203036</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>36.26051582439923</v>
+        <v>-0.9751538958113173</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.26051585731325</v>
+        <v>11.17529467468842</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.26051586812728</v>
+        <v>12.53398213438092</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.26051584507155</v>
+        <v>-13.59580580451687</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.26051588187806</v>
+        <v>9.884350266893161</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.26051589317597</v>
+        <v>11.89499355735228</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.26051584715502</v>
+        <v>-12.36320746161739</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.26051588357745</v>
+        <v>24.8770883630351</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.26051589411218</v>
+        <v>25.08902083532195</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.26051590236342</v>
+        <v>23.29006708732715</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.26051591462044</v>
+        <v>28.22830610423318</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.26051591977682</v>
+        <v>29.96719815535837</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.26051587296627</v>
+        <v>-5.28127523145567</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.26051591232751</v>
+        <v>14.21132794404816</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.26051592136459</v>
+        <v>16.43838156171189</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.26051588179046</v>
+        <v>18.34953419549685</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.26051592021341</v>
+        <v>38.20872084091961</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.2605159339183</v>
+        <v>40.12780675691937</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.26051590295151</v>
+        <v>6.957221583272624</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.26051594442018</v>
+        <v>33.23641291602013</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.26051595939232</v>
+        <v>38.03956658909208</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.26051591147395</v>
+        <v>7.896398835806185</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.26051595359527</v>
+        <v>52.29874257998044</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.26051596731212</v>
+        <v>59.58518918305623</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.26051596911792</v>
+        <v>49.43441367337061</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.26051598473329</v>
+        <v>56.88290673402785</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.26051599098017</v>
+        <v>60.46046004698849</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.26051593493589</v>
+        <v>20.15402486728103</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.26051598249833</v>
+        <v>59.28932471811926</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.26051599351216</v>
+        <v>60.58528127565469</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.26051593307536</v>
+        <v>22.78208171794111</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.26051597277533</v>
+        <v>47.85740807214651</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.26051598672309</v>
+        <v>50.51506637996511</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.26051595509466</v>
+        <v>7.971428234826252</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.26051599794079</v>
+        <v>45.4980128830763</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.26051601317799</v>
+        <v>48.28069112062059</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.2605159655086</v>
+        <v>11.98996033242408</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.26051600891476</v>
+        <v>67.88065197685223</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.26051602265302</v>
+        <v>72.31770080076151</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.26051602256553</v>
+        <v>76.80977892795624</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.26051603754846</v>
+        <v>82.845718219589</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.260516042996</v>
+        <v>88.68061405833998</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>36.26051598516791</v>
+        <v>25.49543887996098</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.26051603302945</v>
+        <v>79.73926623494884</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.26051604407488</v>
+        <v>81.14409673611028</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.26051581156571</v>
+        <v>10.08104667770118</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.26051584343023</v>
+        <v>12.43014224602091</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.26051585449349</v>
+        <v>16.74643427657286</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.26051583142292</v>
+        <v>-1.317880138734449</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.26051586705464</v>
+        <v>12.25529524809575</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>36.26051587853713</v>
+        <v>16.00085748133635</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.26051583302861</v>
+        <v>-0.1623238442189638</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.26051586835621</v>
+        <v>22.9207802012164</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.26051587914151</v>
+        <v>27.11908874070056</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.26051588854187</v>
+        <v>23.41207189007975</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.26051590060727</v>
+        <v>26.41402266198467</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.26051590600425</v>
+        <v>29.55651893775281</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.26051586056848</v>
+        <v>9.084475105976335</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>36.2605158989785</v>
+        <v>18.8457990363863</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.26051590826356</v>
+        <v>23.42789711885547</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.26051586608693</v>
+        <v>7.02954204658872</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.26051590326444</v>
+        <v>12.74353732353229</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.26051591732536</v>
+        <v>20.85463322395212</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.2605158864448</v>
+        <v>-1.83526538664546</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.26051592655285</v>
+        <v>8.853202313785612</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.26051594179839</v>
+        <v>19.13743469910294</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.2605158943641</v>
+        <v>-5.20312171046881</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.26051593519762</v>
+        <v>19.88516098079753</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.26051594928499</v>
+        <v>34.89115611490013</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.2605159523024</v>
+        <v>16.08372069911218</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.260515967676</v>
+        <v>21.16884188882224</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.26051597418844</v>
+        <v>27.81229182354838</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.2605159196231</v>
+        <v>2.753720792785689</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.26051596602535</v>
+        <v>24.19343902485711</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.26051597738165</v>
+        <v>30.35926294955898</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.26051591954571</v>
+        <v>18.08900835729041</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.26051595806128</v>
+        <v>30.28026344240724</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.26051597239068</v>
+        <v>36.97693433526636</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.26051594097149</v>
+        <v>1.719468764669781</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.26051598250885</v>
+        <v>25.3403208646052</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.26051599803461</v>
+        <v>31.34464395432317</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.26051595100744</v>
+        <v>5.081223877083154</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.26051599321667</v>
+        <v>43.46023247933084</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.26051600731373</v>
+        <v>53.19144777292711</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.26051600853641</v>
+        <v>50.55458737196012</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.26051602326743</v>
+        <v>54.65375074305815</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.26051602892294</v>
+        <v>63.20488168178223</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.26051597243078</v>
+        <v>15.43893340779715</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.26051601920738</v>
+        <v>51.47256923088435</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>36.26051603055917</v>
+        <v>56.35965394987331</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>36.26051580988758</v>
+        <v>7.394432167171267</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>36.26051584024724</v>
+        <v>4.788598668622566</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>36.26051585068686</v>
+        <v>5.779203368164413</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>36.26051582816924</v>
+        <v>-2.810834689893248</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>36.26051586208514</v>
+        <v>3.403114007833103</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>36.26051587296402</v>
+        <v>4.686684206887403</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>36.260515829235</v>
+        <v>-5.5855966710544</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.26051586286513</v>
+        <v>9.953496811980003</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.2605158730517</v>
+        <v>10.89587692503492</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.26051588254629</v>
+        <v>8.427269352806196</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.26051589403417</v>
+        <v>8.471194897683301</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.26051589914046</v>
+        <v>12.11149471115532</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>36.26051585607837</v>
+        <v>1.832009652111505</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.26051589264232</v>
+        <v>5.730879035283884</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.26051590139237</v>
+        <v>6.122563533940362</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>36.26051586218417</v>
+        <v>4.523433938352873</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.26051589763706</v>
+        <v>5.368876565065428</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.26051591093832</v>
+        <v>9.268644428093925</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.26051588096021</v>
+        <v>-3.002339410911542</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.26051591917529</v>
+        <v>1.052655539367308</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>36.26051593365115</v>
+        <v>7.777371094654324</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.26051588804036</v>
+        <v>-10.0651195983524</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.2605159269477</v>
+        <v>7.960828863425224</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>36.26051594028217</v>
+        <v>18.21227934427508</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26051594370084</v>
+        <v>3.734109232088169</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.26051595835524</v>
+        <v>5.843080481735814</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.26051596453419</v>
+        <v>11.09310733499209</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.26051591264096</v>
+        <v>-3.621104734741483</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.26051595684849</v>
+        <v>10.90580216313267</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.26051596758928</v>
+        <v>12.2716910174297</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.26051591311758</v>
+        <v>18.69475591133451</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.26051594982876</v>
+        <v>25.16034948543641</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.26051596338932</v>
+        <v>28.92002756691713</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.26051593295686</v>
+        <v>1.903276112102493</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.2605159725122</v>
+        <v>18.08440429856854</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.2605159872741</v>
+        <v>22.25118187593157</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.26051594203744</v>
+        <v>2.32450552836929</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.26051598223081</v>
+        <v>32.30779481508351</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.26051599559275</v>
+        <v>38.84497186046363</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.26051599738954</v>
+        <v>39.16224324951032</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.2605160114701</v>
+        <v>40.75039762401049</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.26051601684531</v>
+        <v>48.25264660688111</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.26051596300527</v>
+        <v>11.58816200451317</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.26051600755546</v>
+        <v>39.03669688781942</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.26051601833426</v>
+        <v>40.53802219031378</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.26051581817278</v>
+        <v>20.10191160713897</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.26051585223928</v>
+        <v>28.10878209017843</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.26051586442713</v>
+        <v>32.31339802747596</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>36.26051584124681</v>
+        <v>4.686580697368456</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.26051587910442</v>
+        <v>26.52993425355937</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.26051589192883</v>
+        <v>30.12962529112671</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.26051584376793</v>
+        <v>10.16857604461375</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.26051588151822</v>
+        <v>41.83818674465972</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.26051589350598</v>
+        <v>46.22287465239039</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.26051590294483</v>
+        <v>43.99055002441524</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.26051591627618</v>
+        <v>50.66749354351582</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.26051592238423</v>
+        <v>52.45313249167668</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.26051587365145</v>
+        <v>28.03300325994132</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.26051591438533</v>
+        <v>45.0554514502484</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.2605159247399</v>
+        <v>52.72448711736736</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.26051588026043</v>
+        <v>12.75135159757101</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.26051592004536</v>
+        <v>25.27026839012142</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.26051593560542</v>
+        <v>30.6983463363192</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.26051590396121</v>
+        <v>-2.333945376869515</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.26051594662955</v>
+        <v>15.72358904409047</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.26051596370402</v>
+        <v>24.09287821800261</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.26051591302782</v>
+        <v>-1.855271452512621</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.26051595667026</v>
+        <v>32.55349132507743</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.26051597236831</v>
+        <v>45.74510029330516</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.26051597426275</v>
+        <v>31.33492576567106</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.26051599143847</v>
+        <v>39.13766137590719</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.26051599863789</v>
+        <v>44.31260485852201</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>36.26051594005099</v>
+        <v>15.47657057552868</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.26051598965321</v>
+        <v>46.43983184627862</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.26051600215139</v>
+        <v>52.24586093958608</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.26051593612554</v>
+        <v>21.16404547310939</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.26051597733213</v>
+        <v>37.91797287158799</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.26051599321407</v>
+        <v>44.2959677780311</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.26051596043609</v>
+        <v>3.958119316209373</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.26051600453303</v>
+        <v>32.82463176475379</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.26051602201361</v>
+        <v>39.29431085399771</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.26051597175393</v>
+        <v>8.222089741362502</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.26051601685308</v>
+        <v>54.38156399667049</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.26051603259994</v>
+        <v>64.34426554962327</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.26051603221975</v>
+        <v>66.63287351080588</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.2605160485232</v>
+        <v>72.72477197993453</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.26051605483229</v>
+        <v>79.8272852625705</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>36.26051599440542</v>
+        <v>28.25468049856947</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.26051604411983</v>
+        <v>70.41658829739946</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.26051605677385</v>
+        <v>77.97566803694058</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.26051582482393</v>
+        <v>18.62448873514938</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.26051585725145</v>
+        <v>37.29565099683081</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.26051586842415</v>
+        <v>40.98349797570247</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.26051584565365</v>
+        <v>10.2119089807495</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.26051588190553</v>
+        <v>40.61623342765313</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.26051589356378</v>
+        <v>43.60778310744014</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.26051584790365</v>
+        <v>14.99677231281642</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.26051588384171</v>
+        <v>56.64422818111371</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.26051589471491</v>
+        <v>60.1918917658126</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.26051590293731</v>
+        <v>60.38490864795816</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.26051591516148</v>
+        <v>65.40458478751651</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.260515920455</v>
+        <v>66.7056147034988</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>36.26051587399726</v>
+        <v>22.48821469706519</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.26051591320563</v>
+        <v>55.76099872867636</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.26051592250072</v>
+        <v>59.94143607364371</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.26051587833401</v>
+        <v>13.55147508945202</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.26051591597662</v>
+        <v>34.11283188219537</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.26051593016954</v>
+        <v>40.3568840641887</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.2605158993078</v>
+        <v>5.021695540182868</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.26051593988187</v>
+        <v>30.53708320131841</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.26051595535542</v>
+        <v>38.8998850684609</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.260515907866</v>
+        <v>5.365132051488562</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.26051594920393</v>
+        <v>47.42793166280636</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.2605159633903</v>
+        <v>60.36787836415249</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.26051596522838</v>
+        <v>46.80440438829797</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.26051598075616</v>
+        <v>55.09544143685659</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.26051598719567</v>
+        <v>58.95503090039137</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.26051593174939</v>
+        <v>14.30075014765241</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.26051597881159</v>
+        <v>58.04170865558719</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.26051599019765</v>
+        <v>63.82713057316811</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.26051592974657</v>
+        <v>15.04098453458914</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.26051596864807</v>
+        <v>40.97096547985927</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.26051598313897</v>
+        <v>47.98166005891915</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.26051595165499</v>
+        <v>3.327241737461424</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.2605159935816</v>
+        <v>40.03179290334562</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.26051600939699</v>
+        <v>46.93301854190723</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.26051596210499</v>
+        <v>6.591477924033697</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.26051600471489</v>
+        <v>60.23190565274507</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.26051601896523</v>
+        <v>70.3944238369176</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.26051601895612</v>
+        <v>70.84388249286638</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.26051603381836</v>
+        <v>78.61944212741371</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.26051603944498</v>
+        <v>85.61797625451418</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.26051598218155</v>
+        <v>17.66179479686674</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.26051602954129</v>
+        <v>75.10807434323212</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.26051604097056</v>
+        <v>82.05693950737087</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.26051582779459</v>
+        <v>13.93787968991326</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.26051586323968</v>
+        <v>31.88186180507921</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.2605158755664</v>
+        <v>35.5499932533546</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.26051585255678</v>
+        <v>6.839330371797271</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.26051589204501</v>
+        <v>40.33203435905416</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.26051590502732</v>
+        <v>43.98003455970115</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.26051585541379</v>
+        <v>9.880218839444012</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.26051589466972</v>
+        <v>55.04272634850744</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.26051590676474</v>
+        <v>58.61720188705577</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.26051591528237</v>
+        <v>53.74214709211268</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.2605159290547</v>
+        <v>61.11498524069295</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.26051593511185</v>
+        <v>61.89230884489751</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.26051588434051</v>
+        <v>20.46990461876173</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.26051592646245</v>
+        <v>48.86730669396165</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.26051593697833</v>
+        <v>58.11814291076347</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.26051589159933</v>
+        <v>14.53083033280252</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.26051593292486</v>
+        <v>37.21378523124353</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.26051594863861</v>
+        <v>42.09962328815831</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.26051591670071</v>
+        <v>3.230668334543257</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.2605159611009</v>
+        <v>33.13239775713176</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.260515978382</v>
+        <v>41.7814189300837</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.26051592628222</v>
+        <v>3.666809971186755</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.26051597158461</v>
+        <v>51.85663923112226</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.2605159874033</v>
+        <v>64.33910781137808</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.26051598812602</v>
+        <v>48.40718623150782</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.26051600586272</v>
+        <v>58.04733396053584</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.26051601303715</v>
+        <v>62.63797979901668</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.26051595229433</v>
+        <v>17.46518737221744</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.26051600350681</v>
+        <v>62.97450817886678</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.26051601611471</v>
+        <v>69.05449234349376</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.2605159467093</v>
+        <v>16.58947324267983</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.26051598944044</v>
+        <v>42.71759358224509</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.26051600541258</v>
+        <v>48.66183163133088</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.26051597236334</v>
+        <v>4.000280896522224</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.26051601819618</v>
+        <v>43.50598707350316</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.26051603580159</v>
+        <v>50.45938453897433</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.26051598408812</v>
+        <v>6.584073114101905</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.26051603081808</v>
+        <v>65.40776874653658</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.26051604663715</v>
+        <v>74.89134429092407</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.26051604513621</v>
+        <v>75.58409385680338</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.260516061942</v>
+        <v>83.12818579803621</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.26051606822433</v>
+        <v>88.92034222045339</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.26051600573037</v>
+        <v>22.79671517815088</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.26051605704731</v>
+        <v>79.34824535389144</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.2605160697817</v>
+        <v>87.41970478061133</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.26051582832383</v>
+        <v>21.35190437823295</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.26051586192347</v>
+        <v>34.74113959409785</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.26051587372268</v>
+        <v>37.58985107650436</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.26051585192015</v>
+        <v>17.90899664978756</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.26051588924463</v>
+        <v>47.4504116404004</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.26051590172449</v>
+        <v>50.80928863866081</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.26051585430169</v>
+        <v>17.09756551410227</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.26051589150721</v>
+        <v>55.83585721809602</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.26051590312504</v>
+        <v>59.04688492320673</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.26051591169755</v>
+        <v>53.90476827828729</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.26051592487853</v>
+        <v>59.73935720213262</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.26051593079801</v>
+        <v>62.71882042728596</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.26051588272315</v>
+        <v>29.41330709063643</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.26051592262985</v>
+        <v>50.26562877238266</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.26051593274397</v>
+        <v>58.6920214459774</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.26051589081378</v>
+        <v>21.72065204227795</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.26051593001459</v>
+        <v>38.82566353821973</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.26051594515019</v>
+        <v>43.29713933909568</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.26051591496962</v>
+        <v>19.73671286824063</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.2605159569609</v>
+        <v>43.57057033647078</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.26051597364471</v>
+        <v>53.01590145552624</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.26051592367578</v>
+        <v>12.39786791185496</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.26051596663716</v>
+        <v>53.35420220873633</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.26051598191844</v>
+        <v>65.61013503712758</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.26051598278457</v>
+        <v>48.67427118770021</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.26051599979144</v>
+        <v>56.16894795729925</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.2605160068041</v>
+        <v>62.95628109821635</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.26051594910322</v>
+        <v>25.97073475951104</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.26051599770316</v>
+        <v>61.42321251018734</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.260516009875</v>
+        <v>67.79040933515702</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.26051594394583</v>
+        <v>24.11608560515898</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.26051598448543</v>
+        <v>43.59826158460471</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.26051599988954</v>
+        <v>49.21216493100368</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.26051596854168</v>
+        <v>20.20349462221887</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.26051601186225</v>
+        <v>52.56658166020711</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.2605160289008</v>
+        <v>60.17175640718084</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.26051597939288</v>
+        <v>15.67780508650555</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.26051602371896</v>
+        <v>66.22643055542784</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.26051603901862</v>
+        <v>75.61235719305694</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.26051603776684</v>
+        <v>76.75965450983945</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.26051605388103</v>
+        <v>81.26221127675474</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.26051606001717</v>
+        <v>88.80631233684893</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.26051600061692</v>
+        <v>31.75321710844478</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.26051604926968</v>
+        <v>76.33254938322281</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>36.26051606160963</v>
+        <v>84.73333625427141</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.26051582469356</v>
+        <v>12.19060065679876</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.26051585943196</v>
+        <v>31.82732501943303</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.26051587120452</v>
+        <v>35.61840637910004</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.2605158477722</v>
+        <v>5.455652971398198</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.26051588654076</v>
+        <v>37.51013288503469</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.26051589893159</v>
+        <v>40.93125737616462</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.26051585050486</v>
+        <v>9.765620384023212</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.26051588897487</v>
+        <v>54.95720337087938</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.26051590049365</v>
+        <v>58.1002588229243</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.26051590900424</v>
+        <v>57.69876745028699</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.260515922175</v>
+        <v>64.33403657143067</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.26051592784642</v>
+        <v>65.26670619930366</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.26051587810444</v>
+        <v>15.17163694710447</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.26051591986801</v>
+        <v>49.90555477848176</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.26051592981094</v>
+        <v>55.85156475532553</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.26051588292002</v>
+        <v>11.47110290595397</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.26051592328918</v>
+        <v>33.59407705753928</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.26051593821727</v>
+        <v>38.03516024488609</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.26051590617931</v>
+        <v>1.375091321940626</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.26051594966148</v>
+        <v>29.71653007441343</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.26051596601477</v>
+        <v>36.13274776841056</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.26051591554511</v>
+        <v>2.138374799350711</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.2605159598264</v>
+        <v>47.80857473625541</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.26051597482203</v>
+        <v>58.88159092766939</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.2605159763647</v>
+        <v>45.30928668186087</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.26051599315193</v>
+        <v>54.0876020942072</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.26051599998809</v>
+        <v>57.17235703645204</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.2605159406686</v>
+        <v>8.204452104324471</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.26051599091599</v>
+        <v>54.47507363017702</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.26051600300076</v>
+        <v>60.03397203791269</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.26051593732305</v>
+        <v>12.04685978030046</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.26051597902125</v>
+        <v>38.31225078083086</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.26051599433232</v>
+        <v>44.86316150122846</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.26051596135976</v>
+        <v>0.1398303971304315</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.26051600625282</v>
+        <v>38.26149007097215</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.26051602304785</v>
+        <v>44.44814766405594</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.26051597271367</v>
+        <v>2.628389081032648</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.26051601833539</v>
+        <v>59.16093143430567</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.26051603346001</v>
+        <v>68.46769598501015</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.26051603283084</v>
+        <v>69.34003290401949</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>36.26051604885704</v>
+        <v>77.17051454284712</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.26051605484977</v>
+        <v>84.27888670673622</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.26051599368353</v>
+        <v>10.95410650061341</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.26051604418723</v>
+        <v>70.64534783350385</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.26051605636921</v>
+        <v>79.146372254155</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.26051581953037</v>
+        <v>12.03492979085454</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.26051585073161</v>
+        <v>15.99151515247873</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.26051586201368</v>
+        <v>20.03002107793984</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.26051584015445</v>
+        <v>0.2595434147963616</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.26051587487311</v>
+        <v>18.11338724658036</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.26051588679153</v>
+        <v>21.5120553281327</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.26051584192362</v>
+        <v>3.090622086626958</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.2605158764872</v>
+        <v>27.85694059796178</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.26051588760015</v>
+        <v>32.38627021078241</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.26051589645336</v>
+        <v>28.72103920246004</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.26051590873612</v>
+        <v>32.18002108861703</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.26051591445312</v>
+        <v>35.62515636669956</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.26051586951693</v>
+        <v>10.42617800997975</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.26051590695133</v>
+        <v>23.02556073637007</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.26051591658832</v>
+        <v>29.09343868925068</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.26051587906795</v>
+        <v>14.30309832976908</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.26051591563107</v>
+        <v>28.19101266766685</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.26051593016606</v>
+        <v>37.25562729236368</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.26051590064359</v>
+        <v>6.233008490824378</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.26051593991068</v>
+        <v>26.48069130376316</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.26051595589471</v>
+        <v>38.16459488451602</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.26051590870486</v>
+        <v>5.979288374483264</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.26051594881407</v>
+        <v>39.54623114383571</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.26051596350128</v>
+        <v>56.46571095423393</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.26051596529256</v>
+        <v>37.48628571483065</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.26051598114751</v>
+        <v>45.34514434338655</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.26051598792682</v>
+        <v>54.71809644131645</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.26051593364795</v>
+        <v>12.67924660053443</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.2605159793908</v>
+        <v>46.89492080763313</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.26051599116312</v>
+        <v>56.87870386634062</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.26051593105214</v>
+        <v>20.18840996523224</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.26051596897727</v>
+        <v>37.63553246100062</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.26051598382116</v>
+        <v>47.33159019332578</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.26051595320625</v>
+        <v>8.19884277361589</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.26051599387172</v>
+        <v>38.35112055939703</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.26051601022915</v>
+        <v>47.87696590313628</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.26051596329091</v>
+        <v>11.50992373196459</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.26051600478932</v>
+        <v>55.50727241729396</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.26051601952852</v>
+        <v>69.0865332940749</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.26051601910036</v>
+        <v>64.49258804523164</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.26051603420506</v>
+        <v>69.75426089639373</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>36.26051604013696</v>
+        <v>81.8850842177542</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.26051598407872</v>
+        <v>21.11632196144178</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.26051603000621</v>
+        <v>64.71679837167575</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.26051604192504</v>
+        <v>77.33052084812991</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.26051582640039</v>
+        <v>13.9997592288846</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.26051585970622</v>
+        <v>25.03462276759016</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.26051587154982</v>
+        <v>29.26817524716692</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>36.26051584969848</v>
+        <v>6.270891051381287</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.2605158866912</v>
+        <v>32.62465907963645</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.26051589922808</v>
+        <v>37.68283470084304</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.26051585203822</v>
+        <v>7.222619281162277</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.26051588892835</v>
+        <v>42.59614073948987</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.26051590059593</v>
+        <v>47.43762637357366</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.26051590930186</v>
+        <v>40.79928367631103</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.26051592244517</v>
+        <v>46.51058144561505</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.26051592839966</v>
+        <v>51.01303717132798</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.26051588064913</v>
+        <v>18.6715754286838</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.26051592031581</v>
+        <v>38.45111351885228</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.26051593045104</v>
+        <v>48.11780795934707</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.26051588852534</v>
+        <v>12.02568682024334</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.26051592738972</v>
+        <v>27.34957293634203</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.26051594262318</v>
+        <v>34.68289979543103</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.2605159124115</v>
+        <v>6.364826006561263</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.26051595404196</v>
+        <v>27.63314802739732</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.26051597084108</v>
+        <v>40.52989812143756</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.26051592106677</v>
+        <v>1.199109862024184</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.26051596367252</v>
+        <v>39.29531715358883</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.26051597905848</v>
+        <v>54.75164277953893</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.26051598004432</v>
+        <v>34.84418166086158</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.26051599700698</v>
+        <v>42.51996020434992</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.26051600406525</v>
+        <v>51.84909290562281</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.26051594669733</v>
+        <v>12.81205282372062</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.26051599501773</v>
+        <v>47.56034397712328</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.26051600726021</v>
+        <v>56.67267322343514</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.26051594174773</v>
+        <v>13.67722722884855</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.26051598195894</v>
+        <v>31.41157917604703</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.26051599746776</v>
+        <v>39.87064935052953</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.26051596609226</v>
+        <v>5.631720316533656</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.26051600906217</v>
+        <v>35.55793588879442</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.26051602621939</v>
+        <v>46.44576061285822</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>36.2605159769007</v>
+        <v>3.44341370301855</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.2605160208826</v>
+        <v>51.21922485679988</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.26051603628841</v>
+        <v>63.78939846664625</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.26051603514827</v>
+        <v>61.85576772222201</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.26051605121502</v>
+        <v>66.51966577181003</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.26051605739175</v>
+        <v>76.65770130150742</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.26051599830861</v>
+        <v>17.82555872065837</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.2605160466841</v>
+        <v>61.35496465922778</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.26051605909931</v>
+        <v>72.84829291071762</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.26051583348342</v>
+        <v>17.99224020746476</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.26051586609974</v>
+        <v>33.5276309208125</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.26051587723201</v>
+        <v>37.05100223966237</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>36.26051585642524</v>
+        <v>8.702787587673718</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.26051589291476</v>
+        <v>42.26644784332061</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.26051590453728</v>
+        <v>43.67852535701458</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.26051585881452</v>
+        <v>15.57895181002606</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.26051589495851</v>
+        <v>57.81557403029251</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.26051590585799</v>
+        <v>59.84224111422654</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.26051591411163</v>
+        <v>60.62167241478103</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.26051592659571</v>
+        <v>65.59201746683725</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.26051593206975</v>
+        <v>65.82330288836819</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.26051588538521</v>
+        <v>27.8566123742328</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.26051592412045</v>
+        <v>50.33886384576569</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>36.2605159337602</v>
+        <v>61.02558442787569</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.26051589156241</v>
+        <v>20.6555797793587</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.26051592970234</v>
+        <v>39.9834318732769</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.26051594376167</v>
+        <v>42.29295198841614</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.26051591480206</v>
+        <v>7.451659652323269</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.26051595596667</v>
+        <v>36.83140415603786</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.26051597127419</v>
+        <v>40.61475757615255</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.26051592344815</v>
+        <v>9.642420907132539</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.26051596527678</v>
+        <v>54.4873940569889</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.26051597940783</v>
+        <v>62.26894508847913</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.26051598079078</v>
+        <v>52.55328048861732</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.26051599678634</v>
+        <v>57.42199172793889</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.26051600324075</v>
+        <v>60.45105555732287</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.26051594744089</v>
+        <v>23.99194335804048</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.26051599458458</v>
+        <v>60.5736167639101</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>36.26051600599737</v>
+        <v>64.6318362710243</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.2605159425598</v>
+        <v>19.98160984135936</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.26051598195141</v>
+        <v>42.80824259586016</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.26051599633224</v>
+        <v>46.23489291112197</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.26051596638754</v>
+        <v>5.82360336088081</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.26051600884816</v>
+        <v>44.02485381429982</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.26051602453338</v>
+        <v>46.56238494001211</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.26051597697839</v>
+        <v>9.734607732776542</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.26051602007747</v>
+        <v>64.9533074098195</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.26051603428245</v>
+        <v>69.87780323953521</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.26051603357308</v>
+        <v>75.10640742719445</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.26051604879201</v>
+        <v>79.38392868545604</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.26051605445123</v>
+        <v>82.35316031490717</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.26051599702402</v>
+        <v>25.61923911204691</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.26051604429255</v>
+        <v>72.58209911774949</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>36.26051605581685</v>
+        <v>79.48696132458794</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.26051582712694</v>
+        <v>11.99534100927186</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.26051586166993</v>
+        <v>31.86673594156923</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.26051587342442</v>
+        <v>34.88495434730034</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>36.26051585027603</v>
+        <v>5.218492547729316</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.26051588881338</v>
+        <v>37.64278255115903</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.26051590119733</v>
+        <v>40.28153419415581</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.26051585305788</v>
+        <v>8.890919664967058</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.26051589130414</v>
+        <v>54.17897357892848</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.26051590282034</v>
+        <v>56.63434509108987</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.26051591123252</v>
+        <v>56.14052591820091</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.26051592438134</v>
+        <v>63.51508273979319</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.26051593003461</v>
+        <v>62.49951796126757</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.26051588051622</v>
+        <v>13.9379494419169</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.26051592203282</v>
+        <v>49.11705968340403</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.26051593195653</v>
+        <v>54.48291573236943</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.2605158853064</v>
+        <v>11.7251054372429</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.26051592543587</v>
+        <v>34.25866546382413</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.26051594036377</v>
+        <v>37.83751677470516</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.26051590856061</v>
+        <v>1.206606130468298</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.26051595176507</v>
+        <v>29.84312489945135</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.26051596812049</v>
+        <v>35.61565848325108</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.26051591793043</v>
+        <v>1.863589850612588</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.26051596193359</v>
+        <v>47.97382785952379</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.26051597694611</v>
+        <v>58.11918945953524</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.26051597838764</v>
+        <v>45.84008214285743</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.26051599516882</v>
+        <v>53.7400430096546</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>36.2605160019626</v>
+        <v>56.39328709577676</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.2605159429384</v>
+        <v>8.061587720473472</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.26051599292514</v>
+        <v>55.47843177977072</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.26051600495842</v>
+        <v>59.7655366716634</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.26051593912569</v>
+        <v>11.3297067084835</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.26051598057028</v>
+        <v>37.37035498414626</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.26051599587499</v>
+        <v>43.61166580677231</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.26051596313884</v>
+        <v>-0.6121857067157066</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.26051600773723</v>
+        <v>37.10694130292538</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.26051602453506</v>
+        <v>43.12975873255736</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.2605159744617</v>
+        <v>1.597072985258013</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.26051601979101</v>
+        <v>57.92059557604717</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.2605160349299</v>
+        <v>66.9216738252109</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>36.26051603419167</v>
+        <v>67.27443165153946</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.26051605018553</v>
+        <v>73.98691075085989</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.26051605615149</v>
+        <v>81.19807620406917</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.26051599531537</v>
+        <v>8.787667286834854</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.26051604551816</v>
+        <v>67.99529827536838</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.26051605767328</v>
+        <v>76.49039592949762</v>
       </c>
     </row>
   </sheetData>
